--- a/BackTest/2019-10-21 BackTest BSV.xlsx
+++ b/BackTest/2019-10-21 BackTest BSV.xlsx
@@ -985,7 +985,9 @@
       <c r="J12" t="n">
         <v>1100</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>81.81818181818183</v>
+      </c>
       <c r="L12" t="n">
         <v>112630</v>
       </c>
@@ -1038,7 +1040,9 @@
       <c r="J13" t="n">
         <v>1100</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>75</v>
+      </c>
       <c r="L13" t="n">
         <v>112720</v>
       </c>
@@ -1087,7 +1091,9 @@
       <c r="J14" t="n">
         <v>1100</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>75</v>
+      </c>
       <c r="L14" t="n">
         <v>112780</v>
       </c>
@@ -1140,7 +1146,9 @@
       <c r="J15" t="n">
         <v>1300</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L15" t="n">
         <v>112820</v>
       </c>
@@ -1191,7 +1199,9 @@
       <c r="J16" t="n">
         <v>1400</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L16" t="n">
         <v>112840</v>
       </c>
@@ -1244,7 +1254,9 @@
       <c r="J17" t="n">
         <v>1400</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L17" t="n">
         <v>112850</v>
       </c>
@@ -1301,7 +1313,9 @@
       <c r="J18" t="n">
         <v>1600</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>112880</v>
       </c>
@@ -1356,7 +1370,9 @@
       <c r="J19" t="n">
         <v>1700</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>112870</v>
       </c>
@@ -1411,7 +1427,9 @@
       <c r="J20" t="n">
         <v>1800</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>112880</v>
       </c>
@@ -1466,7 +1484,9 @@
       <c r="J21" t="n">
         <v>2000</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>112910</v>
       </c>
@@ -1523,7 +1543,9 @@
       <c r="J22" t="n">
         <v>2100</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>40</v>
+      </c>
       <c r="L22" t="n">
         <v>112950</v>
       </c>
@@ -1581,7 +1603,7 @@
         <v>2100</v>
       </c>
       <c r="K23" t="n">
-        <v>61.90476190476191</v>
+        <v>40</v>
       </c>
       <c r="L23" t="n">
         <v>112990</v>
@@ -1640,7 +1662,7 @@
         <v>2100</v>
       </c>
       <c r="K24" t="n">
-        <v>55.55555555555556</v>
+        <v>75</v>
       </c>
       <c r="L24" t="n">
         <v>113030</v>
@@ -1699,7 +1721,7 @@
         <v>2200</v>
       </c>
       <c r="K25" t="n">
-        <v>47.36842105263158</v>
+        <v>50</v>
       </c>
       <c r="L25" t="n">
         <v>113080</v>
@@ -1758,7 +1780,7 @@
         <v>2400</v>
       </c>
       <c r="K26" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L26" t="n">
         <v>113100</v>
@@ -1813,7 +1835,7 @@
         <v>2700</v>
       </c>
       <c r="K27" t="n">
-        <v>30</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L27" t="n">
         <v>113150</v>
@@ -1868,7 +1890,7 @@
         <v>3200</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L28" t="n">
         <v>113130</v>
@@ -1923,7 +1945,7 @@
         <v>3200</v>
       </c>
       <c r="K29" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L29" t="n">
         <v>113120</v>
@@ -1978,7 +2000,7 @@
         <v>3500</v>
       </c>
       <c r="K30" t="n">
-        <v>8.333333333333332</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L30" t="n">
         <v>113130</v>
@@ -2033,7 +2055,7 @@
         <v>3500</v>
       </c>
       <c r="K31" t="n">
-        <v>8.333333333333332</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L31" t="n">
         <v>113120</v>
@@ -2090,7 +2112,7 @@
         <v>3700</v>
       </c>
       <c r="K32" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>113120</v>
@@ -2147,7 +2169,7 @@
         <v>3800</v>
       </c>
       <c r="K33" t="n">
-        <v>11.11111111111111</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L33" t="n">
         <v>113110</v>
@@ -2204,7 +2226,7 @@
         <v>3800</v>
       </c>
       <c r="K34" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>113100</v>
@@ -2255,7 +2277,7 @@
         <v>3900</v>
       </c>
       <c r="K35" t="n">
-        <v>15.38461538461539</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L35" t="n">
         <v>113090</v>
@@ -2306,7 +2328,7 @@
         <v>4500</v>
       </c>
       <c r="K36" t="n">
-        <v>29.03225806451613</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L36" t="n">
         <v>113160</v>
@@ -2357,7 +2379,7 @@
         <v>4600</v>
       </c>
       <c r="K37" t="n">
-        <v>31.25</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L37" t="n">
         <v>113210</v>
@@ -2408,7 +2430,7 @@
         <v>4600</v>
       </c>
       <c r="K38" t="n">
-        <v>26.66666666666667</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L38" t="n">
         <v>113310</v>
@@ -2459,7 +2481,7 @@
         <v>4600</v>
       </c>
       <c r="K39" t="n">
-        <v>31.03448275862069</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L39" t="n">
         <v>113410</v>
@@ -2510,7 +2532,7 @@
         <v>4700</v>
       </c>
       <c r="K40" t="n">
-        <v>24.13793103448276</v>
+        <v>50</v>
       </c>
       <c r="L40" t="n">
         <v>113470</v>
@@ -2561,7 +2583,7 @@
         <v>4800</v>
       </c>
       <c r="K41" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L41" t="n">
         <v>113520</v>
@@ -2612,7 +2634,7 @@
         <v>5100</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L42" t="n">
         <v>113520</v>
@@ -2663,7 +2685,7 @@
         <v>5500</v>
       </c>
       <c r="K43" t="n">
-        <v>11.76470588235294</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L43" t="n">
         <v>113570</v>
@@ -2714,7 +2736,7 @@
         <v>5600</v>
       </c>
       <c r="K44" t="n">
-        <v>14.28571428571428</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L44" t="n">
         <v>113630</v>
@@ -2765,7 +2787,7 @@
         <v>6200</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L45" t="n">
         <v>113640</v>
@@ -2816,7 +2838,7 @@
         <v>6300</v>
       </c>
       <c r="K46" t="n">
-        <v>2.564102564102564</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L46" t="n">
         <v>113580</v>
@@ -2867,7 +2889,7 @@
         <v>6400</v>
       </c>
       <c r="K47" t="n">
-        <v>-2.702702702702703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>113520</v>
@@ -2918,7 +2940,7 @@
         <v>6400</v>
       </c>
       <c r="K48" t="n">
-        <v>12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>113460</v>
@@ -2969,7 +2991,7 @@
         <v>6400</v>
       </c>
       <c r="K49" t="n">
-        <v>12.5</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L49" t="n">
         <v>113400</v>
@@ -3020,7 +3042,7 @@
         <v>6600</v>
       </c>
       <c r="K50" t="n">
-        <v>-3.225806451612903</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>113330</v>
@@ -3071,7 +3093,7 @@
         <v>6800</v>
       </c>
       <c r="K51" t="n">
-        <v>3.03030303030303</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L51" t="n">
         <v>113290</v>
@@ -3122,7 +3144,7 @@
         <v>6800</v>
       </c>
       <c r="K52" t="n">
-        <v>-3.225806451612903</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L52" t="n">
         <v>113280</v>
@@ -3173,7 +3195,7 @@
         <v>6800</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L53" t="n">
         <v>113230</v>
@@ -3224,7 +3246,7 @@
         <v>7000</v>
       </c>
       <c r="K54" t="n">
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="L54" t="n">
         <v>113190</v>
@@ -3275,7 +3297,7 @@
         <v>7200</v>
       </c>
       <c r="K55" t="n">
-        <v>3.03030303030303</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L55" t="n">
         <v>113190</v>
@@ -3326,7 +3348,7 @@
         <v>7300</v>
       </c>
       <c r="K56" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L56" t="n">
         <v>113210</v>
@@ -3377,7 +3399,7 @@
         <v>7600</v>
       </c>
       <c r="K57" t="n">
-        <v>-6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>113250</v>
@@ -3428,7 +3450,7 @@
         <v>7800</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L58" t="n">
         <v>113310</v>
@@ -3479,7 +3501,7 @@
         <v>7900</v>
       </c>
       <c r="K59" t="n">
-        <v>3.03030303030303</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L59" t="n">
         <v>113380</v>
@@ -3530,7 +3552,7 @@
         <v>8000</v>
       </c>
       <c r="K60" t="n">
-        <v>9.090909090909092</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L60" t="n">
         <v>113480</v>
@@ -3581,7 +3603,7 @@
         <v>8100</v>
       </c>
       <c r="K61" t="n">
-        <v>15.15151515151515</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L61" t="n">
         <v>113570</v>
@@ -3632,7 +3654,7 @@
         <v>8200</v>
       </c>
       <c r="K62" t="n">
-        <v>29.03225806451613</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L62" t="n">
         <v>113670</v>
@@ -3683,7 +3705,7 @@
         <v>8300</v>
       </c>
       <c r="K63" t="n">
-        <v>14.28571428571428</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L63" t="n">
         <v>113760</v>
@@ -3734,7 +3756,7 @@
         <v>8500</v>
       </c>
       <c r="K64" t="n">
-        <v>3.448275862068965</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L64" t="n">
         <v>113810</v>
@@ -3785,7 +3807,7 @@
         <v>8600</v>
       </c>
       <c r="K65" t="n">
-        <v>33.33333333333333</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L65" t="n">
         <v>113890</v>
@@ -3836,7 +3858,7 @@
         <v>8700</v>
       </c>
       <c r="K66" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L66" t="n">
         <v>113950</v>
@@ -3887,7 +3909,7 @@
         <v>8800</v>
       </c>
       <c r="K67" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L67" t="n">
         <v>113990</v>
@@ -3938,7 +3960,7 @@
         <v>8900</v>
       </c>
       <c r="K68" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>114000</v>
@@ -3989,7 +4011,7 @@
         <v>9000</v>
       </c>
       <c r="K69" t="n">
-        <v>23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L69" t="n">
         <v>113990</v>
@@ -4040,7 +4062,7 @@
         <v>9000</v>
       </c>
       <c r="K70" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>113970</v>
@@ -4091,7 +4113,7 @@
         <v>9100</v>
       </c>
       <c r="K71" t="n">
-        <v>21.73913043478261</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L71" t="n">
         <v>113930</v>
@@ -4142,7 +4164,7 @@
         <v>9100</v>
       </c>
       <c r="K72" t="n">
-        <v>21.73913043478261</v>
+        <v>-50</v>
       </c>
       <c r="L72" t="n">
         <v>113880</v>
@@ -4193,7 +4215,7 @@
         <v>9100</v>
       </c>
       <c r="K73" t="n">
-        <v>21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>113840</v>
@@ -4244,7 +4266,7 @@
         <v>9400</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="L74" t="n">
         <v>113790</v>
@@ -4295,7 +4317,7 @@
         <v>9500</v>
       </c>
       <c r="K75" t="n">
-        <v>13.04347826086956</v>
+        <v>-50</v>
       </c>
       <c r="L75" t="n">
         <v>113740</v>
@@ -4346,7 +4368,7 @@
         <v>9500</v>
       </c>
       <c r="K76" t="n">
-        <v>9.090909090909092</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L76" t="n">
         <v>113700</v>
@@ -4397,7 +4419,7 @@
         <v>9800</v>
       </c>
       <c r="K77" t="n">
-        <v>9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L77" t="n">
         <v>113680</v>
@@ -4499,7 +4521,7 @@
         <v>9900</v>
       </c>
       <c r="K79" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L79" t="n">
         <v>113660</v>
@@ -4550,7 +4572,7 @@
         <v>9900</v>
       </c>
       <c r="K80" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>113650</v>
@@ -4601,7 +4623,7 @@
         <v>10100</v>
       </c>
       <c r="K81" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="L81" t="n">
         <v>113630</v>
@@ -4652,7 +4674,7 @@
         <v>10300</v>
       </c>
       <c r="K82" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>113590</v>
@@ -4703,7 +4725,7 @@
         <v>10400</v>
       </c>
       <c r="K83" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>113560</v>
@@ -4754,7 +4776,7 @@
         <v>10500</v>
       </c>
       <c r="K84" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>113550</v>
@@ -4805,7 +4827,7 @@
         <v>10500</v>
       </c>
       <c r="K85" t="n">
-        <v>-36.84210526315789</v>
+        <v>-20</v>
       </c>
       <c r="L85" t="n">
         <v>113530</v>
@@ -4856,7 +4878,7 @@
         <v>10500</v>
       </c>
       <c r="K86" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L86" t="n">
         <v>113510</v>
@@ -4907,7 +4929,7 @@
         <v>10600</v>
       </c>
       <c r="K87" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L87" t="n">
         <v>113470</v>
@@ -4958,7 +4980,7 @@
         <v>10600</v>
       </c>
       <c r="K88" t="n">
-        <v>-29.41176470588236</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L88" t="n">
         <v>113430</v>
@@ -5009,7 +5031,7 @@
         <v>10600</v>
       </c>
       <c r="K89" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L89" t="n">
         <v>113400</v>
@@ -5060,7 +5082,7 @@
         <v>10600</v>
       </c>
       <c r="K90" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L90" t="n">
         <v>113370</v>
@@ -5111,7 +5133,7 @@
         <v>10600</v>
       </c>
       <c r="K91" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>113360</v>
@@ -5162,7 +5184,7 @@
         <v>10600</v>
       </c>
       <c r="K92" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>113370</v>
@@ -5213,7 +5235,7 @@
         <v>10600</v>
       </c>
       <c r="K93" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>113370</v>
@@ -5264,7 +5286,7 @@
         <v>10600</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>113380</v>
@@ -5315,7 +5337,7 @@
         <v>10600</v>
       </c>
       <c r="K95" t="n">
-        <v>-9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>113390</v>
@@ -5365,9 +5387,7 @@
       <c r="J96" t="n">
         <v>10600</v>
       </c>
-      <c r="K96" t="n">
-        <v>-9.090909090909092</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>113400</v>
       </c>
@@ -5416,9 +5436,7 @@
       <c r="J97" t="n">
         <v>10600</v>
       </c>
-      <c r="K97" t="n">
-        <v>-50</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>113400</v>
       </c>
@@ -5467,9 +5485,7 @@
       <c r="J98" t="n">
         <v>10600</v>
       </c>
-      <c r="K98" t="n">
-        <v>-50</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>113400</v>
       </c>
@@ -5519,7 +5535,7 @@
         <v>10700</v>
       </c>
       <c r="K99" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L99" t="n">
         <v>113390</v>
@@ -5570,7 +5586,7 @@
         <v>10900</v>
       </c>
       <c r="K100" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="L100" t="n">
         <v>113360</v>
@@ -5621,7 +5637,7 @@
         <v>10900</v>
       </c>
       <c r="K101" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L101" t="n">
         <v>113330</v>
@@ -5672,7 +5688,7 @@
         <v>11200</v>
       </c>
       <c r="K102" t="n">
-        <v>-55.55555555555556</v>
+        <v>-100</v>
       </c>
       <c r="L102" t="n">
         <v>113270</v>
@@ -5723,7 +5739,7 @@
         <v>11500</v>
       </c>
       <c r="K103" t="n">
-        <v>-81.81818181818183</v>
+        <v>-100</v>
       </c>
       <c r="L103" t="n">
         <v>113180</v>
@@ -5774,7 +5790,7 @@
         <v>11600</v>
       </c>
       <c r="K104" t="n">
-        <v>-63.63636363636363</v>
+        <v>-80</v>
       </c>
       <c r="L104" t="n">
         <v>113100</v>
@@ -5825,7 +5841,7 @@
         <v>11600</v>
       </c>
       <c r="K105" t="n">
-        <v>-63.63636363636363</v>
+        <v>-80</v>
       </c>
       <c r="L105" t="n">
         <v>113020</v>
@@ -5876,7 +5892,7 @@
         <v>11600</v>
       </c>
       <c r="K106" t="n">
-        <v>-63.63636363636363</v>
+        <v>-80</v>
       </c>
       <c r="L106" t="n">
         <v>112940</v>
@@ -5978,7 +5994,7 @@
         <v>11700</v>
       </c>
       <c r="K108" t="n">
-        <v>-81.81818181818183</v>
+        <v>-80</v>
       </c>
       <c r="L108" t="n">
         <v>112770</v>
@@ -6029,7 +6045,7 @@
         <v>11800</v>
       </c>
       <c r="K109" t="n">
-        <v>-66.66666666666666</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L109" t="n">
         <v>112700</v>
@@ -6080,7 +6096,7 @@
         <v>11800</v>
       </c>
       <c r="K110" t="n">
-        <v>-66.66666666666666</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L110" t="n">
         <v>112650</v>
@@ -6131,7 +6147,7 @@
         <v>11800</v>
       </c>
       <c r="K111" t="n">
-        <v>-66.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>112600</v>
@@ -6182,7 +6198,7 @@
         <v>11900</v>
       </c>
       <c r="K112" t="n">
-        <v>-69.23076923076923</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>112570</v>
@@ -6233,7 +6249,7 @@
         <v>11900</v>
       </c>
       <c r="K113" t="n">
-        <v>-69.23076923076923</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>112570</v>
@@ -6284,7 +6300,7 @@
         <v>12000</v>
       </c>
       <c r="K114" t="n">
-        <v>-57.14285714285714</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>112570</v>
@@ -6335,7 +6351,7 @@
         <v>12000</v>
       </c>
       <c r="K115" t="n">
-        <v>-57.14285714285714</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>112570</v>
@@ -6386,7 +6402,7 @@
         <v>12100</v>
       </c>
       <c r="K116" t="n">
-        <v>-60</v>
+        <v>-20</v>
       </c>
       <c r="L116" t="n">
         <v>112560</v>
@@ -6437,7 +6453,7 @@
         <v>12200</v>
       </c>
       <c r="K117" t="n">
-        <v>-50</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>112560</v>
@@ -6488,7 +6504,7 @@
         <v>12400</v>
       </c>
       <c r="K118" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>112590</v>
@@ -6539,7 +6555,7 @@
         <v>12400</v>
       </c>
       <c r="K119" t="n">
-        <v>-29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>112610</v>
@@ -6590,7 +6606,7 @@
         <v>12400</v>
       </c>
       <c r="K120" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>112630</v>
@@ -6641,7 +6657,7 @@
         <v>12600</v>
       </c>
       <c r="K121" t="n">
-        <v>-29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L121" t="n">
         <v>112630</v>
@@ -6692,7 +6708,7 @@
         <v>12700</v>
       </c>
       <c r="K122" t="n">
-        <v>-6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L122" t="n">
         <v>112650</v>
@@ -6743,7 +6759,7 @@
         <v>12800</v>
       </c>
       <c r="K123" t="n">
-        <v>23.07692307692308</v>
+        <v>25</v>
       </c>
       <c r="L123" t="n">
         <v>112680</v>
@@ -6845,7 +6861,7 @@
         <v>13000</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L125" t="n">
         <v>112680</v>
@@ -6896,7 +6912,7 @@
         <v>13100</v>
       </c>
       <c r="K126" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L126" t="n">
         <v>112680</v>
@@ -6947,7 +6963,7 @@
         <v>13300</v>
       </c>
       <c r="K127" t="n">
-        <v>-17.64705882352941</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L127" t="n">
         <v>112650</v>
@@ -6998,7 +7014,7 @@
         <v>13500</v>
       </c>
       <c r="K128" t="n">
-        <v>-22.22222222222222</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L128" t="n">
         <v>112580</v>
@@ -7049,7 +7065,7 @@
         <v>13500</v>
       </c>
       <c r="K129" t="n">
-        <v>-29.41176470588236</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L129" t="n">
         <v>112510</v>
@@ -7100,7 +7116,7 @@
         <v>13800</v>
       </c>
       <c r="K130" t="n">
-        <v>-10</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L130" t="n">
         <v>112470</v>
@@ -7151,7 +7167,7 @@
         <v>14000</v>
       </c>
       <c r="K131" t="n">
-        <v>-18.18181818181818</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L131" t="n">
         <v>112430</v>
@@ -7202,7 +7218,7 @@
         <v>14200</v>
       </c>
       <c r="K132" t="n">
-        <v>-21.73913043478261</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L132" t="n">
         <v>112360</v>
@@ -7253,7 +7269,7 @@
         <v>14200</v>
       </c>
       <c r="K133" t="n">
-        <v>-21.73913043478261</v>
+        <v>-50</v>
       </c>
       <c r="L133" t="n">
         <v>112280</v>
@@ -7304,7 +7320,7 @@
         <v>14400</v>
       </c>
       <c r="K134" t="n">
-        <v>-33.33333333333333</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L134" t="n">
         <v>112200</v>
@@ -7355,7 +7371,7 @@
         <v>14600</v>
       </c>
       <c r="K135" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>112140</v>
@@ -7406,7 +7422,7 @@
         <v>14700</v>
       </c>
       <c r="K136" t="n">
-        <v>-23.07692307692308</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L136" t="n">
         <v>112080</v>
@@ -7457,7 +7473,7 @@
         <v>14700</v>
       </c>
       <c r="K137" t="n">
-        <v>-28</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L137" t="n">
         <v>112040</v>
@@ -7508,7 +7524,7 @@
         <v>15000</v>
       </c>
       <c r="K138" t="n">
-        <v>-46.15384615384615</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>111990</v>
@@ -7559,7 +7575,7 @@
         <v>15000</v>
       </c>
       <c r="K139" t="n">
-        <v>-46.15384615384615</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L139" t="n">
         <v>111940</v>
@@ -7610,7 +7626,7 @@
         <v>15000</v>
       </c>
       <c r="K140" t="n">
-        <v>-46.15384615384615</v>
+        <v>-60</v>
       </c>
       <c r="L140" t="n">
         <v>111860</v>
@@ -7661,7 +7677,7 @@
         <v>15400</v>
       </c>
       <c r="K141" t="n">
-        <v>-21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>111840</v>
@@ -7712,7 +7728,7 @@
         <v>15500</v>
       </c>
       <c r="K142" t="n">
-        <v>-28.57142857142857</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L142" t="n">
         <v>111830</v>
@@ -7763,7 +7779,7 @@
         <v>15500</v>
       </c>
       <c r="K143" t="n">
-        <v>-33.33333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L143" t="n">
         <v>111820</v>
@@ -7814,7 +7830,7 @@
         <v>15700</v>
       </c>
       <c r="K144" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L144" t="n">
         <v>111810</v>
@@ -7865,7 +7881,7 @@
         <v>15700</v>
       </c>
       <c r="K145" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>111780</v>
@@ -7916,7 +7932,7 @@
         <v>15700</v>
       </c>
       <c r="K146" t="n">
-        <v>-30.76923076923077</v>
+        <v>-20</v>
       </c>
       <c r="L146" t="n">
         <v>111760</v>
@@ -7967,7 +7983,7 @@
         <v>15700</v>
       </c>
       <c r="K147" t="n">
-        <v>-25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L147" t="n">
         <v>111740</v>
@@ -8018,7 +8034,7 @@
         <v>15700</v>
       </c>
       <c r="K148" t="n">
-        <v>-18.18181818181818</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L148" t="n">
         <v>111750</v>
@@ -8069,7 +8085,7 @@
         <v>15700</v>
       </c>
       <c r="K149" t="n">
-        <v>-18.18181818181818</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L149" t="n">
         <v>111760</v>
@@ -8120,7 +8136,7 @@
         <v>15800</v>
       </c>
       <c r="K150" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="L150" t="n">
         <v>111760</v>
@@ -8171,7 +8187,7 @@
         <v>15900</v>
       </c>
       <c r="K151" t="n">
-        <v>-26.31578947368421</v>
+        <v>-50</v>
       </c>
       <c r="L151" t="n">
         <v>111730</v>
@@ -8222,7 +8238,7 @@
         <v>15900</v>
       </c>
       <c r="K152" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L152" t="n">
         <v>111710</v>
@@ -8273,7 +8289,7 @@
         <v>16200</v>
       </c>
       <c r="K153" t="n">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="L153" t="n">
         <v>111660</v>
@@ -8324,7 +8340,7 @@
         <v>16500</v>
       </c>
       <c r="K154" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>111660</v>
@@ -8375,7 +8391,7 @@
         <v>16500</v>
       </c>
       <c r="K155" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>111660</v>
@@ -8426,7 +8442,7 @@
         <v>16500</v>
       </c>
       <c r="K156" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>111660</v>
@@ -8528,7 +8544,7 @@
         <v>16900</v>
       </c>
       <c r="K158" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>111640</v>
@@ -8579,7 +8595,7 @@
         <v>16900</v>
       </c>
       <c r="K159" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L159" t="n">
         <v>111640</v>
@@ -8630,7 +8646,7 @@
         <v>17200</v>
       </c>
       <c r="K160" t="n">
-        <v>-9.090909090909092</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L160" t="n">
         <v>111620</v>
@@ -8681,7 +8697,7 @@
         <v>17400</v>
       </c>
       <c r="K161" t="n">
-        <v>-20</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L161" t="n">
         <v>111610</v>
@@ -8732,7 +8748,7 @@
         <v>17500</v>
       </c>
       <c r="K162" t="n">
-        <v>-10</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L162" t="n">
         <v>111610</v>
@@ -8783,7 +8799,7 @@
         <v>17600</v>
       </c>
       <c r="K163" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L163" t="n">
         <v>111630</v>
@@ -8885,7 +8901,7 @@
         <v>18000</v>
       </c>
       <c r="K165" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L165" t="n">
         <v>111660</v>
@@ -8936,7 +8952,7 @@
         <v>18100</v>
       </c>
       <c r="K166" t="n">
-        <v>8.333333333333332</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L166" t="n">
         <v>111680</v>
@@ -8987,7 +9003,7 @@
         <v>18100</v>
       </c>
       <c r="K167" t="n">
-        <v>8.333333333333332</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L167" t="n">
         <v>111720</v>
@@ -9038,7 +9054,7 @@
         <v>18100</v>
       </c>
       <c r="K168" t="n">
-        <v>8.333333333333332</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L168" t="n">
         <v>111740</v>
@@ -9089,7 +9105,7 @@
         <v>18100</v>
       </c>
       <c r="K169" t="n">
-        <v>8.333333333333332</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L169" t="n">
         <v>111760</v>
@@ -9140,7 +9156,7 @@
         <v>18200</v>
       </c>
       <c r="K170" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L170" t="n">
         <v>111820</v>
@@ -9191,7 +9207,7 @@
         <v>18200</v>
       </c>
       <c r="K171" t="n">
-        <v>13.04347826086956</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L171" t="n">
         <v>111860</v>
@@ -9242,7 +9258,7 @@
         <v>18400</v>
       </c>
       <c r="K172" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="L172" t="n">
         <v>111910</v>
@@ -9293,7 +9309,7 @@
         <v>18400</v>
       </c>
       <c r="K173" t="n">
-        <v>36.36363636363637</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L173" t="n">
         <v>111970</v>
@@ -9344,7 +9360,7 @@
         <v>18400</v>
       </c>
       <c r="K174" t="n">
-        <v>26.31578947368421</v>
+        <v>50</v>
       </c>
       <c r="L174" t="n">
         <v>112020</v>
@@ -9395,7 +9411,7 @@
         <v>18500</v>
       </c>
       <c r="K175" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L175" t="n">
         <v>112050</v>
@@ -9446,7 +9462,7 @@
         <v>18700</v>
       </c>
       <c r="K176" t="n">
-        <v>18.18181818181818</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>112070</v>
@@ -9497,7 +9513,7 @@
         <v>18800</v>
       </c>
       <c r="K177" t="n">
-        <v>23.80952380952381</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L177" t="n">
         <v>112080</v>
@@ -9548,7 +9564,7 @@
         <v>18900</v>
       </c>
       <c r="K178" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>112080</v>
@@ -9599,7 +9615,7 @@
         <v>19100</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>112060</v>
@@ -9650,7 +9666,7 @@
         <v>19400</v>
       </c>
       <c r="K180" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>112060</v>
@@ -9701,7 +9717,7 @@
         <v>19800</v>
       </c>
       <c r="K181" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L181" t="n">
         <v>112100</v>
@@ -9752,7 +9768,7 @@
         <v>20200</v>
       </c>
       <c r="K182" t="n">
-        <v>11.11111111111111</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L182" t="n">
         <v>112080</v>
@@ -9803,7 +9819,7 @@
         <v>20700</v>
       </c>
       <c r="K183" t="n">
-        <v>-3.225806451612903</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L183" t="n">
         <v>112010</v>
@@ -9854,7 +9870,7 @@
         <v>21100</v>
       </c>
       <c r="K184" t="n">
-        <v>5.88235294117647</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L184" t="n">
         <v>111980</v>
@@ -9905,7 +9921,7 @@
         <v>21300</v>
       </c>
       <c r="K185" t="n">
-        <v>3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>111960</v>
@@ -9956,7 +9972,7 @@
         <v>21600</v>
       </c>
       <c r="K186" t="n">
-        <v>-2.857142857142857</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L186" t="n">
         <v>111930</v>
@@ -10007,7 +10023,7 @@
         <v>21600</v>
       </c>
       <c r="K187" t="n">
-        <v>-2.857142857142857</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L187" t="n">
         <v>111910</v>
@@ -10058,7 +10074,7 @@
         <v>21600</v>
       </c>
       <c r="K188" t="n">
-        <v>-2.857142857142857</v>
+        <v>4</v>
       </c>
       <c r="L188" t="n">
         <v>111900</v>
@@ -10109,7 +10125,7 @@
         <v>21700</v>
       </c>
       <c r="K189" t="n">
-        <v>-5.555555555555555</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L189" t="n">
         <v>111900</v>
@@ -10160,7 +10176,7 @@
         <v>21700</v>
       </c>
       <c r="K190" t="n">
-        <v>-8.571428571428571</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L190" t="n">
         <v>111870</v>
@@ -10211,7 +10227,7 @@
         <v>21700</v>
       </c>
       <c r="K191" t="n">
-        <v>-8.571428571428571</v>
+        <v>-20</v>
       </c>
       <c r="L191" t="n">
         <v>111800</v>
@@ -10262,7 +10278,7 @@
         <v>21700</v>
       </c>
       <c r="K192" t="n">
-        <v>-15.15151515151515</v>
+        <v>20</v>
       </c>
       <c r="L192" t="n">
         <v>111770</v>
@@ -10313,7 +10329,7 @@
         <v>22000</v>
       </c>
       <c r="K193" t="n">
-        <v>-5.555555555555555</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L193" t="n">
         <v>111820</v>
@@ -10364,7 +10380,7 @@
         <v>22000</v>
       </c>
       <c r="K194" t="n">
-        <v>-5.555555555555555</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L194" t="n">
         <v>111830</v>
@@ -10415,7 +10431,7 @@
         <v>22000</v>
       </c>
       <c r="K195" t="n">
-        <v>-8.571428571428571</v>
+        <v>50</v>
       </c>
       <c r="L195" t="n">
         <v>111820</v>
@@ -10466,7 +10482,7 @@
         <v>22100</v>
       </c>
       <c r="K196" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L196" t="n">
         <v>111830</v>
@@ -10517,7 +10533,7 @@
         <v>22200</v>
       </c>
       <c r="K197" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>111830</v>
@@ -10568,7 +10584,7 @@
         <v>22300</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>111840</v>
@@ -10619,7 +10635,7 @@
         <v>22400</v>
       </c>
       <c r="K199" t="n">
-        <v>3.03030303030303</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L199" t="n">
         <v>111850</v>
@@ -10670,7 +10686,7 @@
         <v>22400</v>
       </c>
       <c r="K200" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L200" t="n">
         <v>111860</v>
@@ -10721,7 +10737,7 @@
         <v>22400</v>
       </c>
       <c r="K201" t="n">
-        <v>-23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L201" t="n">
         <v>111870</v>
@@ -10772,7 +10788,7 @@
         <v>22500</v>
       </c>
       <c r="K202" t="n">
-        <v>-4.347826086956522</v>
+        <v>-20</v>
       </c>
       <c r="L202" t="n">
         <v>111890</v>
@@ -10823,7 +10839,7 @@
         <v>22600</v>
       </c>
       <c r="K203" t="n">
-        <v>15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>111870</v>
@@ -10874,7 +10890,7 @@
         <v>22700</v>
       </c>
       <c r="K204" t="n">
-        <v>-12.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L204" t="n">
         <v>111840</v>
@@ -10925,7 +10941,7 @@
         <v>22800</v>
       </c>
       <c r="K205" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L205" t="n">
         <v>111820</v>
@@ -10976,7 +10992,7 @@
         <v>22900</v>
       </c>
       <c r="K206" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L206" t="n">
         <v>111800</v>
@@ -11027,7 +11043,7 @@
         <v>22900</v>
       </c>
       <c r="K207" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>111790</v>
@@ -11078,7 +11094,7 @@
         <v>22900</v>
       </c>
       <c r="K208" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L208" t="n">
         <v>111770</v>
@@ -11129,7 +11145,7 @@
         <v>22900</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L209" t="n">
         <v>111760</v>
@@ -11180,7 +11196,7 @@
         <v>22900</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L210" t="n">
         <v>111750</v>
@@ -11231,7 +11247,7 @@
         <v>22900</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L211" t="n">
         <v>111740</v>
@@ -11282,7 +11298,7 @@
         <v>23000</v>
       </c>
       <c r="K212" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L212" t="n">
         <v>111710</v>
@@ -11333,7 +11349,7 @@
         <v>23500</v>
       </c>
       <c r="K213" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="L213" t="n">
         <v>111640</v>
@@ -11384,7 +11400,7 @@
         <v>23600</v>
       </c>
       <c r="K214" t="n">
-        <v>-62.5</v>
+        <v>-100</v>
       </c>
       <c r="L214" t="n">
         <v>111570</v>
@@ -11435,7 +11451,7 @@
         <v>23900</v>
       </c>
       <c r="K215" t="n">
-        <v>-36.84210526315789</v>
+        <v>-40</v>
       </c>
       <c r="L215" t="n">
         <v>111520</v>
@@ -11486,7 +11502,7 @@
         <v>24000</v>
       </c>
       <c r="K216" t="n">
-        <v>-26.31578947368421</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L216" t="n">
         <v>111490</v>
@@ -11537,7 +11553,7 @@
         <v>24200</v>
       </c>
       <c r="K217" t="n">
-        <v>-30</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L217" t="n">
         <v>111440</v>
@@ -11588,7 +11604,7 @@
         <v>24600</v>
       </c>
       <c r="K218" t="n">
-        <v>-13.04347826086956</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L218" t="n">
         <v>111430</v>
@@ -11639,7 +11655,7 @@
         <v>24800</v>
       </c>
       <c r="K219" t="n">
-        <v>-16.66666666666666</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L219" t="n">
         <v>111400</v>
@@ -11690,7 +11706,7 @@
         <v>25000</v>
       </c>
       <c r="K220" t="n">
-        <v>-23.07692307692308</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L220" t="n">
         <v>111350</v>
@@ -11741,7 +11757,7 @@
         <v>25100</v>
       </c>
       <c r="K221" t="n">
-        <v>-25.92592592592592</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L221" t="n">
         <v>111290</v>
@@ -11792,7 +11808,7 @@
         <v>25200</v>
       </c>
       <c r="K222" t="n">
-        <v>-33.33333333333333</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L222" t="n">
         <v>111230</v>
@@ -11843,7 +11859,7 @@
         <v>25400</v>
       </c>
       <c r="K223" t="n">
-        <v>-21.42857142857143</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L223" t="n">
         <v>111240</v>
@@ -11894,7 +11910,7 @@
         <v>25900</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L224" t="n">
         <v>111310</v>
@@ -11945,7 +11961,7 @@
         <v>26000</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L225" t="n">
         <v>111360</v>
@@ -11996,7 +12012,7 @@
         <v>26100</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L226" t="n">
         <v>111390</v>
@@ -12047,7 +12063,7 @@
         <v>26200</v>
       </c>
       <c r="K227" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>111430</v>
@@ -12098,7 +12114,7 @@
         <v>26300</v>
       </c>
       <c r="K228" t="n">
-        <v>-5.88235294117647</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L228" t="n">
         <v>111420</v>
@@ -12149,7 +12165,7 @@
         <v>26300</v>
       </c>
       <c r="K229" t="n">
-        <v>-5.88235294117647</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L229" t="n">
         <v>111430</v>
@@ -12200,7 +12216,7 @@
         <v>26300</v>
       </c>
       <c r="K230" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L230" t="n">
         <v>111460</v>
@@ -12251,7 +12267,7 @@
         <v>26400</v>
       </c>
       <c r="K231" t="n">
-        <v>-2.857142857142857</v>
+        <v>50</v>
       </c>
       <c r="L231" t="n">
         <v>111510</v>
@@ -12302,7 +12318,7 @@
         <v>26500</v>
       </c>
       <c r="K232" t="n">
-        <v>-2.857142857142857</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L232" t="n">
         <v>111560</v>
@@ -12353,7 +12369,7 @@
         <v>26600</v>
       </c>
       <c r="K233" t="n">
-        <v>16.12903225806452</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L233" t="n">
         <v>111600</v>
@@ -12404,7 +12420,7 @@
         <v>26600</v>
       </c>
       <c r="K234" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>111590</v>
@@ -12455,7 +12471,7 @@
         <v>26600</v>
       </c>
       <c r="K235" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L235" t="n">
         <v>111570</v>
@@ -12506,7 +12522,7 @@
         <v>27000</v>
       </c>
       <c r="K236" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L236" t="n">
         <v>111600</v>
@@ -12557,7 +12573,7 @@
         <v>27100</v>
       </c>
       <c r="K237" t="n">
-        <v>24.13793103448276</v>
+        <v>50</v>
       </c>
       <c r="L237" t="n">
         <v>111630</v>
@@ -12608,7 +12624,7 @@
         <v>27300</v>
       </c>
       <c r="K238" t="n">
-        <v>18.51851851851852</v>
+        <v>60</v>
       </c>
       <c r="L238" t="n">
         <v>111690</v>
@@ -12659,7 +12675,7 @@
         <v>27300</v>
       </c>
       <c r="K239" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="L239" t="n">
         <v>111750</v>
@@ -12710,7 +12726,7 @@
         <v>27300</v>
       </c>
       <c r="K240" t="n">
-        <v>39.1304347826087</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L240" t="n">
         <v>111810</v>
@@ -12761,7 +12777,7 @@
         <v>27400</v>
       </c>
       <c r="K241" t="n">
-        <v>47.82608695652174</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L241" t="n">
         <v>111870</v>
@@ -12812,7 +12828,7 @@
         <v>27500</v>
       </c>
       <c r="K242" t="n">
-        <v>56.52173913043478</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L242" t="n">
         <v>111950</v>
@@ -12863,7 +12879,7 @@
         <v>27500</v>
       </c>
       <c r="K243" t="n">
-        <v>52.38095238095239</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L243" t="n">
         <v>112020</v>
@@ -12914,7 +12930,7 @@
         <v>27500</v>
       </c>
       <c r="K244" t="n">
-        <v>37.5</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L244" t="n">
         <v>112090</v>
@@ -12965,7 +12981,7 @@
         <v>27600</v>
       </c>
       <c r="K245" t="n">
-        <v>37.5</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L245" t="n">
         <v>112170</v>
@@ -13016,7 +13032,7 @@
         <v>27700</v>
       </c>
       <c r="K246" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L246" t="n">
         <v>112220</v>
@@ -13067,7 +13083,7 @@
         <v>27800</v>
       </c>
       <c r="K247" t="n">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="L247" t="n">
         <v>112290</v>
@@ -13118,7 +13134,7 @@
         <v>28100</v>
       </c>
       <c r="K248" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L248" t="n">
         <v>112370</v>
@@ -13169,7 +13185,7 @@
         <v>28200</v>
       </c>
       <c r="K249" t="n">
-        <v>78.94736842105263</v>
+        <v>100</v>
       </c>
       <c r="L249" t="n">
         <v>112460</v>
@@ -13220,7 +13236,7 @@
         <v>28200</v>
       </c>
       <c r="K250" t="n">
-        <v>78.94736842105263</v>
+        <v>100</v>
       </c>
       <c r="L250" t="n">
         <v>112550</v>
@@ -13271,7 +13287,7 @@
         <v>28300</v>
       </c>
       <c r="K251" t="n">
-        <v>78.94736842105263</v>
+        <v>100</v>
       </c>
       <c r="L251" t="n">
         <v>112640</v>
@@ -13322,7 +13338,7 @@
         <v>28300</v>
       </c>
       <c r="K252" t="n">
-        <v>88.88888888888889</v>
+        <v>100</v>
       </c>
       <c r="L252" t="n">
         <v>112720</v>
@@ -13373,7 +13389,7 @@
         <v>28300</v>
       </c>
       <c r="K253" t="n">
-        <v>88.23529411764706</v>
+        <v>100</v>
       </c>
       <c r="L253" t="n">
         <v>112800</v>
@@ -13424,7 +13440,7 @@
         <v>28300</v>
       </c>
       <c r="K254" t="n">
-        <v>88.23529411764706</v>
+        <v>100</v>
       </c>
       <c r="L254" t="n">
         <v>112880</v>
@@ -13475,7 +13491,7 @@
         <v>28400</v>
       </c>
       <c r="K255" t="n">
-        <v>77.77777777777779</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L255" t="n">
         <v>112940</v>
@@ -13526,7 +13542,7 @@
         <v>28500</v>
       </c>
       <c r="K256" t="n">
-        <v>60</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L256" t="n">
         <v>112980</v>
@@ -13577,7 +13593,7 @@
         <v>28900</v>
       </c>
       <c r="K257" t="n">
-        <v>77.77777777777779</v>
+        <v>50</v>
       </c>
       <c r="L257" t="n">
         <v>113050</v>
@@ -13628,7 +13644,7 @@
         <v>29300</v>
       </c>
       <c r="K258" t="n">
-        <v>80</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L258" t="n">
         <v>113130</v>
@@ -13679,7 +13695,7 @@
         <v>29300</v>
       </c>
       <c r="K259" t="n">
-        <v>80</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L259" t="n">
         <v>113200</v>
@@ -13730,7 +13746,7 @@
         <v>29500</v>
       </c>
       <c r="K260" t="n">
-        <v>63.63636363636363</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>113250</v>
@@ -13781,7 +13797,7 @@
         <v>29700</v>
       </c>
       <c r="K261" t="n">
-        <v>47.82608695652174</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L261" t="n">
         <v>113270</v>
@@ -13832,7 +13848,7 @@
         <v>29800</v>
       </c>
       <c r="K262" t="n">
-        <v>39.1304347826087</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L262" t="n">
         <v>113280</v>
@@ -13883,7 +13899,7 @@
         <v>30300</v>
       </c>
       <c r="K263" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L263" t="n">
         <v>113340</v>
@@ -13934,7 +13950,7 @@
         <v>30400</v>
       </c>
       <c r="K264" t="n">
-        <v>51.72413793103448</v>
+        <v>40</v>
       </c>
       <c r="L264" t="n">
         <v>113410</v>
@@ -13985,7 +14001,7 @@
         <v>30400</v>
       </c>
       <c r="K265" t="n">
-        <v>50</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L265" t="n">
         <v>113490</v>
@@ -14036,7 +14052,7 @@
         <v>30800</v>
       </c>
       <c r="K266" t="n">
-        <v>29.03225806451613</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L266" t="n">
         <v>113540</v>
@@ -14087,7 +14103,7 @@
         <v>30800</v>
       </c>
       <c r="K267" t="n">
-        <v>26.66666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L267" t="n">
         <v>113550</v>
@@ -14138,7 +14154,7 @@
         <v>31100</v>
       </c>
       <c r="K268" t="n">
-        <v>26.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>113550</v>
@@ -14189,7 +14205,7 @@
         <v>31300</v>
       </c>
       <c r="K269" t="n">
-        <v>16.12903225806452</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>113530</v>
@@ -14240,7 +14256,7 @@
         <v>31300</v>
       </c>
       <c r="K270" t="n">
-        <v>16.12903225806452</v>
+        <v>12.5</v>
       </c>
       <c r="L270" t="n">
         <v>113530</v>
@@ -14291,7 +14307,7 @@
         <v>31400</v>
       </c>
       <c r="K271" t="n">
-        <v>9.67741935483871</v>
+        <v>12.5</v>
       </c>
       <c r="L271" t="n">
         <v>113540</v>
@@ -14342,7 +14358,7 @@
         <v>31400</v>
       </c>
       <c r="K272" t="n">
-        <v>9.67741935483871</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L272" t="n">
         <v>113560</v>
@@ -14393,7 +14409,7 @@
         <v>31400</v>
       </c>
       <c r="K273" t="n">
-        <v>9.67741935483871</v>
+        <v>-40</v>
       </c>
       <c r="L273" t="n">
         <v>113530</v>
@@ -14444,7 +14460,7 @@
         <v>31400</v>
       </c>
       <c r="K274" t="n">
-        <v>9.67741935483871</v>
+        <v>-40</v>
       </c>
       <c r="L274" t="n">
         <v>113490</v>
@@ -14495,7 +14511,7 @@
         <v>31800</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L275" t="n">
         <v>113410</v>
@@ -14546,7 +14562,7 @@
         <v>32400</v>
       </c>
       <c r="K276" t="n">
-        <v>17.94871794871795</v>
+        <v>12.5</v>
       </c>
       <c r="L276" t="n">
         <v>113430</v>
@@ -14597,7 +14613,7 @@
         <v>32500</v>
       </c>
       <c r="K277" t="n">
-        <v>5.555555555555555</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L277" t="n">
         <v>113440</v>
@@ -14648,7 +14664,7 @@
         <v>32600</v>
       </c>
       <c r="K278" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L278" t="n">
         <v>113410</v>
@@ -14699,7 +14715,7 @@
         <v>32700</v>
       </c>
       <c r="K279" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>113410</v>
@@ -14750,7 +14766,7 @@
         <v>33100</v>
       </c>
       <c r="K280" t="n">
-        <v>-11.11111111111111</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L280" t="n">
         <v>113370</v>
@@ -14801,7 +14817,7 @@
         <v>33200</v>
       </c>
       <c r="K281" t="n">
-        <v>-2.857142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L281" t="n">
         <v>113350</v>
@@ -14852,7 +14868,7 @@
         <v>33400</v>
       </c>
       <c r="K282" t="n">
-        <v>-5.555555555555555</v>
+        <v>-20</v>
       </c>
       <c r="L282" t="n">
         <v>113310</v>
@@ -14903,7 +14919,7 @@
         <v>33400</v>
       </c>
       <c r="K283" t="n">
-        <v>-22.58064516129032</v>
+        <v>-20</v>
       </c>
       <c r="L283" t="n">
         <v>113270</v>
@@ -14954,7 +14970,7 @@
         <v>33500</v>
       </c>
       <c r="K284" t="n">
-        <v>-22.58064516129032</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L284" t="n">
         <v>113240</v>
@@ -15005,7 +15021,7 @@
         <v>33600</v>
       </c>
       <c r="K285" t="n">
-        <v>-18.75</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L285" t="n">
         <v>113260</v>
@@ -15056,7 +15072,7 @@
         <v>33700</v>
       </c>
       <c r="K286" t="n">
-        <v>-10.3448275862069</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>113210</v>
@@ -15107,7 +15123,7 @@
         <v>33700</v>
       </c>
       <c r="K287" t="n">
-        <v>-10.3448275862069</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L287" t="n">
         <v>113170</v>
@@ -15158,7 +15174,7 @@
         <v>33700</v>
       </c>
       <c r="K288" t="n">
-        <v>-23.07692307692308</v>
+        <v>-40</v>
       </c>
       <c r="L288" t="n">
         <v>113140</v>
@@ -15209,7 +15225,7 @@
         <v>33700</v>
       </c>
       <c r="K289" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>113100</v>
@@ -15260,7 +15276,7 @@
         <v>33900</v>
       </c>
       <c r="K290" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L290" t="n">
         <v>113080</v>
@@ -15362,7 +15378,7 @@
         <v>34000</v>
       </c>
       <c r="K292" t="n">
-        <v>-15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>113050</v>
@@ -15413,7 +15429,7 @@
         <v>34000</v>
       </c>
       <c r="K293" t="n">
-        <v>-15.38461538461539</v>
+        <v>-20</v>
       </c>
       <c r="L293" t="n">
         <v>113050</v>
@@ -15464,7 +15480,7 @@
         <v>34000</v>
       </c>
       <c r="K294" t="n">
-        <v>-15.38461538461539</v>
+        <v>-50</v>
       </c>
       <c r="L294" t="n">
         <v>113040</v>
@@ -15515,7 +15531,7 @@
         <v>34000</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L295" t="n">
         <v>113020</v>
@@ -15566,7 +15582,7 @@
         <v>34000</v>
       </c>
       <c r="K296" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>113010</v>
@@ -15668,7 +15684,7 @@
         <v>34100</v>
       </c>
       <c r="K298" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L298" t="n">
         <v>112980</v>
@@ -15719,7 +15735,7 @@
         <v>34200</v>
       </c>
       <c r="K299" t="n">
-        <v>-46.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L299" t="n">
         <v>112950</v>
@@ -15770,7 +15786,7 @@
         <v>34400</v>
       </c>
       <c r="K300" t="n">
-        <v>-38.46153846153847</v>
+        <v>-60</v>
       </c>
       <c r="L300" t="n">
         <v>112920</v>
@@ -15821,7 +15837,7 @@
         <v>34500</v>
       </c>
       <c r="K301" t="n">
-        <v>-38.46153846153847</v>
+        <v>-60</v>
       </c>
       <c r="L301" t="n">
         <v>112900</v>
@@ -15872,7 +15888,7 @@
         <v>34500</v>
       </c>
       <c r="K302" t="n">
-        <v>-27.27272727272727</v>
+        <v>-60</v>
       </c>
       <c r="L302" t="n">
         <v>112870</v>
@@ -15923,7 +15939,7 @@
         <v>34500</v>
       </c>
       <c r="K303" t="n">
-        <v>-27.27272727272727</v>
+        <v>-60</v>
       </c>
       <c r="L303" t="n">
         <v>112840</v>
@@ -15974,7 +15990,7 @@
         <v>34700</v>
       </c>
       <c r="K304" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L304" t="n">
         <v>112830</v>
@@ -16025,7 +16041,7 @@
         <v>34800</v>
       </c>
       <c r="K305" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>112830</v>
@@ -16076,7 +16092,7 @@
         <v>34900</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L306" t="n">
         <v>112840</v>
@@ -16127,7 +16143,7 @@
         <v>35000</v>
       </c>
       <c r="K307" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L307" t="n">
         <v>112840</v>
@@ -16178,7 +16194,7 @@
         <v>35100</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L308" t="n">
         <v>112860</v>
@@ -16229,7 +16245,7 @@
         <v>35600</v>
       </c>
       <c r="K309" t="n">
-        <v>-26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>112840</v>
@@ -16280,7 +16296,7 @@
         <v>36100</v>
       </c>
       <c r="K310" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L310" t="n">
         <v>112890</v>
@@ -16331,7 +16347,7 @@
         <v>36200</v>
       </c>
       <c r="K311" t="n">
-        <v>4.347826086956522</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L311" t="n">
         <v>112920</v>
@@ -16382,7 +16398,7 @@
         <v>36300</v>
       </c>
       <c r="K312" t="n">
-        <v>4.347826086956522</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L312" t="n">
         <v>112960</v>
@@ -16433,7 +16449,7 @@
         <v>36400</v>
       </c>
       <c r="K313" t="n">
-        <v>8.333333333333332</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L313" t="n">
         <v>113010</v>
@@ -16484,7 +16500,7 @@
         <v>36500</v>
       </c>
       <c r="K314" t="n">
-        <v>4</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L314" t="n">
         <v>113030</v>
@@ -16535,7 +16551,7 @@
         <v>36500</v>
       </c>
       <c r="K315" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>113040</v>
@@ -16586,7 +16602,7 @@
         <v>36800</v>
       </c>
       <c r="K316" t="n">
-        <v>-7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L316" t="n">
         <v>113010</v>
@@ -16637,7 +16653,7 @@
         <v>36800</v>
       </c>
       <c r="K317" t="n">
-        <v>-7.142857142857142</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L317" t="n">
         <v>112990</v>
@@ -16688,7 +16704,7 @@
         <v>36900</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L318" t="n">
         <v>112970</v>
@@ -16739,7 +16755,7 @@
         <v>36900</v>
       </c>
       <c r="K319" t="n">
-        <v>3.703703703703703</v>
+        <v>-25</v>
       </c>
       <c r="L319" t="n">
         <v>113000</v>
@@ -16790,7 +16806,7 @@
         <v>37000</v>
       </c>
       <c r="K320" t="n">
-        <v>7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L320" t="n">
         <v>112970</v>
@@ -16841,7 +16857,7 @@
         <v>37000</v>
       </c>
       <c r="K321" t="n">
-        <v>4</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L321" t="n">
         <v>112950</v>
@@ -16892,7 +16908,7 @@
         <v>37000</v>
       </c>
       <c r="K322" t="n">
-        <v>4</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L322" t="n">
         <v>112920</v>
@@ -16943,7 +16959,7 @@
         <v>37100</v>
       </c>
       <c r="K323" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>112890</v>
@@ -16994,7 +17010,7 @@
         <v>37200</v>
       </c>
       <c r="K324" t="n">
-        <v>-4</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L324" t="n">
         <v>112860</v>
@@ -17045,7 +17061,7 @@
         <v>37400</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>112850</v>
@@ -17096,7 +17112,7 @@
         <v>37700</v>
       </c>
       <c r="K326" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L326" t="n">
         <v>112840</v>
@@ -17147,7 +17163,7 @@
         <v>37800</v>
       </c>
       <c r="K327" t="n">
-        <v>-7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L327" t="n">
         <v>112840</v>
@@ -17249,7 +17265,7 @@
         <v>37900</v>
       </c>
       <c r="K329" t="n">
-        <v>13.04347826086956</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L329" t="n">
         <v>112830</v>
@@ -17300,7 +17316,7 @@
         <v>38000</v>
       </c>
       <c r="K330" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L330" t="n">
         <v>112830</v>
@@ -17351,7 +17367,7 @@
         <v>38100</v>
       </c>
       <c r="K331" t="n">
-        <v>-15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L331" t="n">
         <v>112820</v>
@@ -17402,7 +17418,7 @@
         <v>38200</v>
       </c>
       <c r="K332" t="n">
-        <v>-15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L332" t="n">
         <v>112820</v>
@@ -17453,7 +17469,7 @@
         <v>38400</v>
       </c>
       <c r="K333" t="n">
-        <v>-10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L333" t="n">
         <v>112830</v>
@@ -17504,7 +17520,7 @@
         <v>38400</v>
       </c>
       <c r="K334" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>112850</v>
@@ -17555,7 +17571,7 @@
         <v>38500</v>
       </c>
       <c r="K335" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L335" t="n">
         <v>112840</v>
@@ -17606,7 +17622,7 @@
         <v>38600</v>
       </c>
       <c r="K336" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L336" t="n">
         <v>112870</v>
@@ -17657,7 +17673,7 @@
         <v>38600</v>
       </c>
       <c r="K337" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L337" t="n">
         <v>112890</v>
@@ -17708,7 +17724,7 @@
         <v>38800</v>
       </c>
       <c r="K338" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L338" t="n">
         <v>112930</v>
@@ -17759,7 +17775,7 @@
         <v>38800</v>
       </c>
       <c r="K339" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L339" t="n">
         <v>112960</v>
@@ -17810,7 +17826,7 @@
         <v>38800</v>
       </c>
       <c r="K340" t="n">
-        <v>22.22222222222222</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L340" t="n">
         <v>113000</v>
@@ -17861,7 +17877,7 @@
         <v>38800</v>
       </c>
       <c r="K341" t="n">
-        <v>22.22222222222222</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L341" t="n">
         <v>113050</v>
@@ -17912,7 +17928,7 @@
         <v>38800</v>
       </c>
       <c r="K342" t="n">
-        <v>22.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="L342" t="n">
         <v>113090</v>
@@ -17963,7 +17979,7 @@
         <v>38800</v>
       </c>
       <c r="K343" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L343" t="n">
         <v>113110</v>
@@ -18014,7 +18030,7 @@
         <v>38900</v>
       </c>
       <c r="K344" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L344" t="n">
         <v>113120</v>
@@ -18065,7 +18081,7 @@
         <v>39100</v>
       </c>
       <c r="K345" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L345" t="n">
         <v>113120</v>
@@ -18116,7 +18132,7 @@
         <v>39200</v>
       </c>
       <c r="K346" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>113120</v>
@@ -18167,7 +18183,7 @@
         <v>39400</v>
       </c>
       <c r="K347" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>113140</v>
@@ -18218,7 +18234,7 @@
         <v>39600</v>
       </c>
       <c r="K348" t="n">
-        <v>11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L348" t="n">
         <v>113120</v>
@@ -18269,7 +18285,7 @@
         <v>39600</v>
       </c>
       <c r="K349" t="n">
-        <v>5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L349" t="n">
         <v>113100</v>
@@ -18320,7 +18336,7 @@
         <v>39700</v>
       </c>
       <c r="K350" t="n">
-        <v>5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L350" t="n">
         <v>113070</v>
@@ -18371,7 +18387,7 @@
         <v>39800</v>
       </c>
       <c r="K351" t="n">
-        <v>17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L351" t="n">
         <v>113050</v>
@@ -18422,7 +18438,7 @@
         <v>39800</v>
       </c>
       <c r="K352" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L352" t="n">
         <v>113030</v>
@@ -18473,7 +18489,7 @@
         <v>39800</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L353" t="n">
         <v>113010</v>
@@ -18524,7 +18540,7 @@
         <v>39800</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L354" t="n">
         <v>113000</v>
@@ -18575,7 +18591,7 @@
         <v>39800</v>
       </c>
       <c r="K355" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>113010</v>
@@ -18626,7 +18642,7 @@
         <v>39800</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L356" t="n">
         <v>113010</v>
@@ -18677,7 +18693,7 @@
         <v>39900</v>
       </c>
       <c r="K357" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L357" t="n">
         <v>113000</v>
@@ -18728,7 +18744,7 @@
         <v>39900</v>
       </c>
       <c r="K358" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L358" t="n">
         <v>113010</v>
@@ -18779,7 +18795,7 @@
         <v>40000</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L359" t="n">
         <v>113030</v>
@@ -18830,7 +18846,7 @@
         <v>40500</v>
       </c>
       <c r="K360" t="n">
-        <v>-29.41176470588236</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L360" t="n">
         <v>113010</v>
@@ -18881,7 +18897,7 @@
         <v>40600</v>
       </c>
       <c r="K361" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L361" t="n">
         <v>112990</v>
@@ -18932,7 +18948,7 @@
         <v>41100</v>
       </c>
       <c r="K362" t="n">
-        <v>4.347826086956522</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L362" t="n">
         <v>113020</v>
@@ -18983,7 +18999,7 @@
         <v>41300</v>
       </c>
       <c r="K363" t="n">
-        <v>-4</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L363" t="n">
         <v>113030</v>
@@ -19034,7 +19050,7 @@
         <v>41400</v>
       </c>
       <c r="K364" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>113030</v>
@@ -19085,7 +19101,7 @@
         <v>41400</v>
       </c>
       <c r="K365" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L365" t="n">
         <v>113030</v>
@@ -19136,7 +19152,7 @@
         <v>41500</v>
       </c>
       <c r="K366" t="n">
-        <v>-4.347826086956522</v>
+        <v>-12.5</v>
       </c>
       <c r="L366" t="n">
         <v>113020</v>
@@ -19187,7 +19203,7 @@
         <v>41700</v>
       </c>
       <c r="K367" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>113020</v>
@@ -19238,7 +19254,7 @@
         <v>42000</v>
       </c>
       <c r="K368" t="n">
-        <v>-8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L368" t="n">
         <v>112990</v>
@@ -19289,7 +19305,7 @@
         <v>42000</v>
       </c>
       <c r="K369" t="n">
-        <v>-8.333333333333332</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L369" t="n">
         <v>112950</v>
@@ -19340,7 +19356,7 @@
         <v>42000</v>
       </c>
       <c r="K370" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>112960</v>
@@ -19391,7 +19407,7 @@
         <v>42300</v>
       </c>
       <c r="K371" t="n">
-        <v>4</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L371" t="n">
         <v>112990</v>
@@ -19442,7 +19458,7 @@
         <v>42300</v>
       </c>
       <c r="K372" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>112970</v>
@@ -19493,7 +19509,7 @@
         <v>42400</v>
       </c>
       <c r="K373" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L373" t="n">
         <v>112980</v>
@@ -19544,7 +19560,7 @@
         <v>42400</v>
       </c>
       <c r="K374" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L374" t="n">
         <v>113000</v>
@@ -19595,7 +19611,7 @@
         <v>42800</v>
       </c>
       <c r="K375" t="n">
-        <v>-6.666666666666667</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L375" t="n">
         <v>112980</v>
@@ -19646,7 +19662,7 @@
         <v>42900</v>
       </c>
       <c r="K376" t="n">
-        <v>-3.225806451612903</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L376" t="n">
         <v>112980</v>
@@ -19697,7 +19713,7 @@
         <v>43000</v>
       </c>
       <c r="K377" t="n">
-        <v>-3.225806451612903</v>
+        <v>20</v>
       </c>
       <c r="L377" t="n">
         <v>112970</v>
@@ -19748,7 +19764,7 @@
         <v>43100</v>
       </c>
       <c r="K378" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L378" t="n">
         <v>113000</v>
@@ -19799,7 +19815,7 @@
         <v>43100</v>
       </c>
       <c r="K379" t="n">
-        <v>-3.225806451612903</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L379" t="n">
         <v>113030</v>
@@ -19850,7 +19866,7 @@
         <v>43100</v>
       </c>
       <c r="K380" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>113060</v>
@@ -19901,7 +19917,7 @@
         <v>43100</v>
       </c>
       <c r="K381" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>113060</v>
@@ -19952,7 +19968,7 @@
         <v>43100</v>
       </c>
       <c r="K382" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L382" t="n">
         <v>113060</v>
@@ -20003,7 +20019,7 @@
         <v>43200</v>
       </c>
       <c r="K383" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>113060</v>
@@ -20054,7 +20070,7 @@
         <v>43300</v>
       </c>
       <c r="K384" t="n">
-        <v>5.263157894736842</v>
+        <v>60</v>
       </c>
       <c r="L384" t="n">
         <v>113050</v>
@@ -20105,7 +20121,7 @@
         <v>43300</v>
       </c>
       <c r="K385" t="n">
-        <v>5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L385" t="n">
         <v>113080</v>
@@ -20156,7 +20172,7 @@
         <v>43400</v>
       </c>
       <c r="K386" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>113090</v>
@@ -20207,7 +20223,7 @@
         <v>43800</v>
       </c>
       <c r="K387" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L387" t="n">
         <v>113130</v>
@@ -20258,7 +20274,7 @@
         <v>43900</v>
       </c>
       <c r="K388" t="n">
-        <v>26.31578947368421</v>
+        <v>25</v>
       </c>
       <c r="L388" t="n">
         <v>113150</v>
@@ -20309,7 +20325,7 @@
         <v>43900</v>
       </c>
       <c r="K389" t="n">
-        <v>26.31578947368421</v>
+        <v>25</v>
       </c>
       <c r="L389" t="n">
         <v>113170</v>
@@ -20360,7 +20376,7 @@
         <v>44100</v>
       </c>
       <c r="K390" t="n">
-        <v>33.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="L390" t="n">
         <v>113210</v>
@@ -20411,7 +20427,7 @@
         <v>44200</v>
       </c>
       <c r="K391" t="n">
-        <v>26.31578947368421</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L391" t="n">
         <v>113260</v>
@@ -20462,7 +20478,7 @@
         <v>44300</v>
       </c>
       <c r="K392" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L392" t="n">
         <v>113300</v>
@@ -20513,7 +20529,7 @@
         <v>44500</v>
       </c>
       <c r="K393" t="n">
-        <v>23.80952380952381</v>
+        <v>50</v>
       </c>
       <c r="L393" t="n">
         <v>113350</v>
@@ -20564,7 +20580,7 @@
         <v>44800</v>
       </c>
       <c r="K394" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L394" t="n">
         <v>113440</v>
@@ -20615,7 +20631,7 @@
         <v>44800</v>
       </c>
       <c r="K395" t="n">
-        <v>60</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L395" t="n">
         <v>113530</v>
@@ -20666,7 +20682,7 @@
         <v>44900</v>
       </c>
       <c r="K396" t="n">
-        <v>50</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L396" t="n">
         <v>113620</v>
@@ -20717,7 +20733,7 @@
         <v>45100</v>
       </c>
       <c r="K397" t="n">
-        <v>52.38095238095239</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L397" t="n">
         <v>113690</v>
@@ -20768,7 +20784,7 @@
         <v>45100</v>
       </c>
       <c r="K398" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L398" t="n">
         <v>113770</v>
@@ -20819,7 +20835,7 @@
         <v>45200</v>
       </c>
       <c r="K399" t="n">
-        <v>52.38095238095239</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L399" t="n">
         <v>113860</v>
@@ -20870,7 +20886,7 @@
         <v>45300</v>
       </c>
       <c r="K400" t="n">
-        <v>54.54545454545454</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L400" t="n">
         <v>113940</v>
@@ -20921,7 +20937,7 @@
         <v>45700</v>
       </c>
       <c r="K401" t="n">
-        <v>30.76923076923077</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L401" t="n">
         <v>113970</v>
@@ -20972,7 +20988,7 @@
         <v>45800</v>
       </c>
       <c r="K402" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L402" t="n">
         <v>114020</v>
@@ -21023,7 +21039,7 @@
         <v>45800</v>
       </c>
       <c r="K403" t="n">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>114050</v>
@@ -21074,7 +21090,7 @@
         <v>46100</v>
       </c>
       <c r="K404" t="n">
-        <v>42.85714285714285</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L404" t="n">
         <v>114080</v>
@@ -21125,7 +21141,7 @@
         <v>46200</v>
       </c>
       <c r="K405" t="n">
-        <v>44.82758620689656</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L405" t="n">
         <v>114120</v>
@@ -21176,7 +21192,7 @@
         <v>46500</v>
       </c>
       <c r="K406" t="n">
-        <v>35.48387096774194</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>114140</v>
@@ -21227,7 +21243,7 @@
         <v>46500</v>
       </c>
       <c r="K407" t="n">
-        <v>25.92592592592592</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>114140</v>
@@ -21278,7 +21294,7 @@
         <v>46800</v>
       </c>
       <c r="K408" t="n">
-        <v>37.93103448275862</v>
+        <v>12.5</v>
       </c>
       <c r="L408" t="n">
         <v>114170</v>
@@ -21329,7 +21345,7 @@
         <v>47300</v>
       </c>
       <c r="K409" t="n">
-        <v>17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L409" t="n">
         <v>114140</v>
@@ -21380,7 +21396,7 @@
         <v>47500</v>
       </c>
       <c r="K410" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L410" t="n">
         <v>114080</v>
@@ -21431,7 +21447,7 @@
         <v>47600</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L411" t="n">
         <v>114050</v>
@@ -21482,7 +21498,7 @@
         <v>47600</v>
       </c>
       <c r="K412" t="n">
-        <v>3.03030303030303</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L412" t="n">
         <v>114010</v>
@@ -21533,7 +21549,7 @@
         <v>47800</v>
       </c>
       <c r="K413" t="n">
-        <v>-9.090909090909092</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L413" t="n">
         <v>113950</v>
@@ -21584,7 +21600,7 @@
         <v>47800</v>
       </c>
       <c r="K414" t="n">
-        <v>-20</v>
+        <v>-62.5</v>
       </c>
       <c r="L414" t="n">
         <v>113860</v>
@@ -21635,7 +21651,7 @@
         <v>48100</v>
       </c>
       <c r="K415" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L415" t="n">
         <v>113790</v>
@@ -21686,7 +21702,7 @@
         <v>48100</v>
       </c>
       <c r="K416" t="n">
-        <v>-6.25</v>
+        <v>-25</v>
       </c>
       <c r="L416" t="n">
         <v>113750</v>
@@ -21737,7 +21753,7 @@
         <v>48100</v>
       </c>
       <c r="K417" t="n">
-        <v>-13.33333333333333</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L417" t="n">
         <v>113710</v>
@@ -21788,7 +21804,7 @@
         <v>48300</v>
       </c>
       <c r="K418" t="n">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>113660</v>
@@ -21839,7 +21855,7 @@
         <v>48400</v>
       </c>
       <c r="K419" t="n">
-        <v>-12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L419" t="n">
         <v>113650</v>
@@ -21890,7 +21906,7 @@
         <v>48500</v>
       </c>
       <c r="K420" t="n">
-        <v>-12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L420" t="n">
         <v>113670</v>
@@ -21941,7 +21957,7 @@
         <v>48600</v>
       </c>
       <c r="K421" t="n">
-        <v>3.448275862068965</v>
+        <v>40</v>
       </c>
       <c r="L421" t="n">
         <v>113710</v>
@@ -21992,7 +22008,7 @@
         <v>48700</v>
       </c>
       <c r="K422" t="n">
-        <v>-3.448275862068965</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L422" t="n">
         <v>113740</v>
@@ -22043,7 +22059,7 @@
         <v>48900</v>
       </c>
       <c r="K423" t="n">
-        <v>-9.67741935483871</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L423" t="n">
         <v>113770</v>
@@ -22094,7 +22110,7 @@
         <v>48900</v>
       </c>
       <c r="K424" t="n">
-        <v>-21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>113800</v>
@@ -22145,7 +22161,7 @@
         <v>49200</v>
       </c>
       <c r="K425" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L425" t="n">
         <v>113770</v>
@@ -22196,7 +22212,7 @@
         <v>49400</v>
       </c>
       <c r="K426" t="n">
-        <v>-31.03448275862069</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L426" t="n">
         <v>113720</v>
@@ -22247,7 +22263,7 @@
         <v>50100</v>
       </c>
       <c r="K427" t="n">
-        <v>-5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>113740</v>
@@ -22298,7 +22314,7 @@
         <v>50300</v>
       </c>
       <c r="K428" t="n">
-        <v>-20</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L428" t="n">
         <v>113720</v>
@@ -22349,7 +22365,7 @@
         <v>50700</v>
       </c>
       <c r="K429" t="n">
-        <v>-17.64705882352941</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L429" t="n">
         <v>113670</v>
@@ -22400,7 +22416,7 @@
         <v>50800</v>
       </c>
       <c r="K430" t="n">
-        <v>-9.090909090909092</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L430" t="n">
         <v>113620</v>
@@ -22451,7 +22467,7 @@
         <v>51100</v>
       </c>
       <c r="K431" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L431" t="n">
         <v>113530</v>
@@ -22502,7 +22518,7 @@
         <v>51400</v>
       </c>
       <c r="K432" t="n">
-        <v>-21.05263157894737</v>
+        <v>-36</v>
       </c>
       <c r="L432" t="n">
         <v>113420</v>
@@ -22553,7 +22569,7 @@
         <v>51400</v>
       </c>
       <c r="K433" t="n">
-        <v>-16.66666666666666</v>
+        <v>-36</v>
       </c>
       <c r="L433" t="n">
         <v>113330</v>
@@ -22604,7 +22620,7 @@
         <v>51700</v>
       </c>
       <c r="K434" t="n">
-        <v>-7.692307692307693</v>
+        <v>-12</v>
       </c>
       <c r="L434" t="n">
         <v>113270</v>
@@ -22655,7 +22671,7 @@
         <v>51700</v>
       </c>
       <c r="K435" t="n">
-        <v>-16.66666666666666</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L435" t="n">
         <v>113240</v>
@@ -22706,7 +22722,7 @@
         <v>51700</v>
       </c>
       <c r="K436" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L436" t="n">
         <v>113230</v>
@@ -22757,7 +22773,7 @@
         <v>51800</v>
       </c>
       <c r="K437" t="n">
-        <v>-13.51351351351351</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L437" t="n">
         <v>113160</v>
@@ -22808,7 +22824,7 @@
         <v>51900</v>
       </c>
       <c r="K438" t="n">
-        <v>-22.22222222222222</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L438" t="n">
         <v>113100</v>
@@ -22859,7 +22875,7 @@
         <v>52100</v>
       </c>
       <c r="K439" t="n">
-        <v>-24.32432432432433</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L439" t="n">
         <v>113060</v>
@@ -22910,7 +22926,7 @@
         <v>52200</v>
       </c>
       <c r="K440" t="n">
-        <v>-29.72972972972973</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L440" t="n">
         <v>113000</v>
@@ -22961,7 +22977,7 @@
         <v>52300</v>
       </c>
       <c r="K441" t="n">
-        <v>-29.72972972972973</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L441" t="n">
         <v>112980</v>
@@ -23012,7 +23028,7 @@
         <v>52400</v>
       </c>
       <c r="K442" t="n">
-        <v>-29.72972972972973</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>112980</v>
@@ -23063,7 +23079,7 @@
         <v>52400</v>
       </c>
       <c r="K443" t="n">
-        <v>-25.71428571428571</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L443" t="n">
         <v>112980</v>
@@ -23114,7 +23130,7 @@
         <v>52500</v>
       </c>
       <c r="K444" t="n">
-        <v>-27.77777777777778</v>
+        <v>-50</v>
       </c>
       <c r="L444" t="n">
         <v>112940</v>
@@ -23165,7 +23181,7 @@
         <v>52600</v>
       </c>
       <c r="K445" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L445" t="n">
         <v>112910</v>
@@ -23216,7 +23232,7 @@
         <v>52800</v>
       </c>
       <c r="K446" t="n">
-        <v>-17.64705882352941</v>
+        <v>-60</v>
       </c>
       <c r="L446" t="n">
         <v>112860</v>
@@ -23267,7 +23283,7 @@
         <v>53000</v>
       </c>
       <c r="K447" t="n">
-        <v>-37.93103448275862</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L447" t="n">
         <v>112820</v>
@@ -23318,7 +23334,7 @@
         <v>53200</v>
       </c>
       <c r="K448" t="n">
-        <v>-37.93103448275862</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L448" t="n">
         <v>112770</v>
@@ -23369,7 +23385,7 @@
         <v>53300</v>
       </c>
       <c r="K449" t="n">
-        <v>-23.07692307692308</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L449" t="n">
         <v>112750</v>
@@ -23420,7 +23436,7 @@
         <v>53300</v>
       </c>
       <c r="K450" t="n">
-        <v>-28</v>
+        <v>-20</v>
       </c>
       <c r="L450" t="n">
         <v>112740</v>
@@ -23471,7 +23487,7 @@
         <v>53300</v>
       </c>
       <c r="K451" t="n">
-        <v>-18.18181818181818</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L451" t="n">
         <v>112720</v>
@@ -23522,7 +23538,7 @@
         <v>53400</v>
       </c>
       <c r="K452" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L452" t="n">
         <v>112700</v>
@@ -23573,7 +23589,7 @@
         <v>53900</v>
       </c>
       <c r="K453" t="n">
-        <v>12</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L453" t="n">
         <v>112730</v>
@@ -23624,7 +23640,7 @@
         <v>53900</v>
       </c>
       <c r="K454" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L454" t="n">
         <v>112770</v>
@@ -23675,7 +23691,7 @@
         <v>54100</v>
       </c>
       <c r="K455" t="n">
-        <v>-8.333333333333332</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L455" t="n">
         <v>112780</v>
@@ -23726,7 +23742,7 @@
         <v>54200</v>
       </c>
       <c r="K456" t="n">
-        <v>-4</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L456" t="n">
         <v>112820</v>
@@ -23777,7 +23793,7 @@
         <v>54300</v>
       </c>
       <c r="K457" t="n">
-        <v>-12</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L457" t="n">
         <v>112830</v>
@@ -23828,7 +23844,7 @@
         <v>54300</v>
       </c>
       <c r="K458" t="n">
-        <v>-8.333333333333332</v>
+        <v>20</v>
       </c>
       <c r="L458" t="n">
         <v>112860</v>
@@ -23879,7 +23895,7 @@
         <v>54400</v>
       </c>
       <c r="K459" t="n">
-        <v>-4.347826086956522</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L459" t="n">
         <v>112870</v>
@@ -23930,7 +23946,7 @@
         <v>54600</v>
       </c>
       <c r="K460" t="n">
-        <v>-8.333333333333332</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L460" t="n">
         <v>112860</v>
@@ -23981,7 +23997,7 @@
         <v>54900</v>
       </c>
       <c r="K461" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L461" t="n">
         <v>112880</v>
@@ -24032,7 +24048,7 @@
         <v>55200</v>
       </c>
       <c r="K462" t="n">
-        <v>-7.142857142857142</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L462" t="n">
         <v>112880</v>
@@ -24083,7 +24099,7 @@
         <v>55400</v>
       </c>
       <c r="K463" t="n">
-        <v>-13.33333333333333</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L463" t="n">
         <v>112810</v>
@@ -24134,7 +24150,7 @@
         <v>55500</v>
       </c>
       <c r="K464" t="n">
-        <v>-13.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L464" t="n">
         <v>112730</v>
@@ -24185,7 +24201,7 @@
         <v>55600</v>
       </c>
       <c r="K465" t="n">
-        <v>-13.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L465" t="n">
         <v>112680</v>
@@ -24236,7 +24252,7 @@
         <v>55600</v>
       </c>
       <c r="K466" t="n">
-        <v>-7.142857142857142</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L466" t="n">
         <v>112620</v>
@@ -24287,7 +24303,7 @@
         <v>55700</v>
       </c>
       <c r="K467" t="n">
-        <v>-18.51851851851852</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L467" t="n">
         <v>112560</v>
@@ -24338,7 +24354,7 @@
         <v>55700</v>
       </c>
       <c r="K468" t="n">
-        <v>-12</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L468" t="n">
         <v>112500</v>
@@ -24440,7 +24456,7 @@
         <v>56000</v>
       </c>
       <c r="K470" t="n">
-        <v>-11.11111111111111</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L470" t="n">
         <v>112450</v>
@@ -24491,7 +24507,7 @@
         <v>56100</v>
       </c>
       <c r="K471" t="n">
-        <v>-7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L471" t="n">
         <v>112410</v>
@@ -24542,7 +24558,7 @@
         <v>56100</v>
       </c>
       <c r="K472" t="n">
-        <v>-3.703703703703703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L472" t="n">
         <v>112400</v>
@@ -24593,7 +24609,7 @@
         <v>56200</v>
       </c>
       <c r="K473" t="n">
-        <v>-30.43478260869566</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L473" t="n">
         <v>112400</v>
@@ -24644,7 +24660,7 @@
         <v>56300</v>
       </c>
       <c r="K474" t="n">
-        <v>-25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L474" t="n">
         <v>112420</v>
@@ -24695,7 +24711,7 @@
         <v>56400</v>
       </c>
       <c r="K475" t="n">
-        <v>-21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L475" t="n">
         <v>112420</v>
@@ -24746,7 +24762,7 @@
         <v>56400</v>
       </c>
       <c r="K476" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L476" t="n">
         <v>112420</v>
@@ -24797,7 +24813,7 @@
         <v>56500</v>
       </c>
       <c r="K477" t="n">
-        <v>-18.18181818181818</v>
+        <v>25</v>
       </c>
       <c r="L477" t="n">
         <v>112440</v>
@@ -24848,7 +24864,7 @@
         <v>56500</v>
       </c>
       <c r="K478" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>112460</v>
@@ -24899,7 +24915,7 @@
         <v>56500</v>
       </c>
       <c r="K479" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L479" t="n">
         <v>112460</v>
@@ -24950,7 +24966,7 @@
         <v>56800</v>
       </c>
       <c r="K480" t="n">
-        <v>9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L480" t="n">
         <v>112500</v>
@@ -25001,7 +25017,7 @@
         <v>56800</v>
       </c>
       <c r="K481" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L481" t="n">
         <v>112530</v>
@@ -25052,7 +25068,7 @@
         <v>57000</v>
       </c>
       <c r="K482" t="n">
-        <v>22.22222222222222</v>
+        <v>75</v>
       </c>
       <c r="L482" t="n">
         <v>112580</v>
@@ -25103,7 +25119,7 @@
         <v>57000</v>
       </c>
       <c r="K483" t="n">
-        <v>37.5</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L483" t="n">
         <v>112640</v>
@@ -25154,7 +25170,7 @@
         <v>57000</v>
       </c>
       <c r="K484" t="n">
-        <v>46.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L484" t="n">
         <v>112690</v>
@@ -25205,7 +25221,7 @@
         <v>57000</v>
       </c>
       <c r="K485" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L485" t="n">
         <v>112750</v>
@@ -25256,7 +25272,7 @@
         <v>57000</v>
       </c>
       <c r="K486" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L486" t="n">
         <v>112810</v>
@@ -25307,7 +25323,7 @@
         <v>57000</v>
       </c>
       <c r="K487" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L487" t="n">
         <v>112860</v>
@@ -25358,7 +25374,7 @@
         <v>57100</v>
       </c>
       <c r="K488" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L488" t="n">
         <v>112920</v>
@@ -25409,7 +25425,7 @@
         <v>57300</v>
       </c>
       <c r="K489" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L489" t="n">
         <v>113000</v>
@@ -25460,7 +25476,7 @@
         <v>57400</v>
       </c>
       <c r="K490" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L490" t="n">
         <v>113060</v>
@@ -25511,7 +25527,7 @@
         <v>57400</v>
       </c>
       <c r="K491" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L491" t="n">
         <v>113120</v>
@@ -25562,7 +25578,7 @@
         <v>57400</v>
       </c>
       <c r="K492" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L492" t="n">
         <v>113160</v>
@@ -25613,7 +25629,7 @@
         <v>57500</v>
       </c>
       <c r="K493" t="n">
-        <v>69.23076923076923</v>
+        <v>60</v>
       </c>
       <c r="L493" t="n">
         <v>113190</v>
@@ -25664,7 +25680,7 @@
         <v>57600</v>
       </c>
       <c r="K494" t="n">
-        <v>69.23076923076923</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L494" t="n">
         <v>113230</v>
@@ -25715,7 +25731,7 @@
         <v>57800</v>
       </c>
       <c r="K495" t="n">
-        <v>57.14285714285714</v>
+        <v>25</v>
       </c>
       <c r="L495" t="n">
         <v>113250</v>
@@ -25766,7 +25782,7 @@
         <v>58100</v>
       </c>
       <c r="K496" t="n">
-        <v>64.70588235294117</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L496" t="n">
         <v>113300</v>
@@ -25817,7 +25833,7 @@
         <v>58100</v>
       </c>
       <c r="K497" t="n">
-        <v>62.5</v>
+        <v>40</v>
       </c>
       <c r="L497" t="n">
         <v>113350</v>
@@ -25868,7 +25884,7 @@
         <v>58100</v>
       </c>
       <c r="K498" t="n">
-        <v>62.5</v>
+        <v>25</v>
       </c>
       <c r="L498" t="n">
         <v>113390</v>
@@ -25919,7 +25935,7 @@
         <v>58300</v>
       </c>
       <c r="K499" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L499" t="n">
         <v>113430</v>
@@ -25970,7 +25986,7 @@
         <v>58500</v>
       </c>
       <c r="K500" t="n">
-        <v>41.17647058823529</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L500" t="n">
         <v>113440</v>
@@ -26021,7 +26037,7 @@
         <v>58500</v>
       </c>
       <c r="K501" t="n">
-        <v>41.17647058823529</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L501" t="n">
         <v>113450</v>
@@ -26072,7 +26088,7 @@
         <v>58500</v>
       </c>
       <c r="K502" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L502" t="n">
         <v>113460</v>
@@ -26123,7 +26139,7 @@
         <v>58700</v>
       </c>
       <c r="K503" t="n">
-        <v>41.17647058823529</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L503" t="n">
         <v>113500</v>
@@ -26174,7 +26190,7 @@
         <v>58900</v>
       </c>
       <c r="K504" t="n">
-        <v>47.36842105263158</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L504" t="n">
         <v>113550</v>
@@ -26225,7 +26241,7 @@
         <v>59100</v>
       </c>
       <c r="K505" t="n">
-        <v>52.38095238095239</v>
+        <v>60</v>
       </c>
       <c r="L505" t="n">
         <v>113640</v>
@@ -26276,7 +26292,7 @@
         <v>59300</v>
       </c>
       <c r="K506" t="n">
-        <v>39.1304347826087</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L506" t="n">
         <v>113680</v>
@@ -26327,7 +26343,7 @@
         <v>59500</v>
       </c>
       <c r="K507" t="n">
-        <v>28</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L507" t="n">
         <v>113700</v>
@@ -26378,7 +26394,7 @@
         <v>59600</v>
       </c>
       <c r="K508" t="n">
-        <v>28</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L508" t="n">
         <v>113730</v>
@@ -26429,7 +26445,7 @@
         <v>59600</v>
       </c>
       <c r="K509" t="n">
-        <v>21.73913043478261</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L509" t="n">
         <v>113740</v>
@@ -26480,7 +26496,7 @@
         <v>59600</v>
       </c>
       <c r="K510" t="n">
-        <v>18.18181818181818</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L510" t="n">
         <v>113770</v>
@@ -26531,7 +26547,7 @@
         <v>59600</v>
       </c>
       <c r="K511" t="n">
-        <v>18.18181818181818</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L511" t="n">
         <v>113800</v>
@@ -26582,7 +26598,7 @@
         <v>59800</v>
       </c>
       <c r="K512" t="n">
-        <v>8.333333333333332</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L512" t="n">
         <v>113810</v>
@@ -26633,7 +26649,7 @@
         <v>60100</v>
       </c>
       <c r="K513" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L513" t="n">
         <v>113770</v>
@@ -26684,7 +26700,7 @@
         <v>60200</v>
       </c>
       <c r="K514" t="n">
-        <v>0</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L514" t="n">
         <v>113720</v>
@@ -26735,7 +26751,7 @@
         <v>60300</v>
       </c>
       <c r="K515" t="n">
-        <v>12</v>
+        <v>-40</v>
       </c>
       <c r="L515" t="n">
         <v>113660</v>
@@ -26786,7 +26802,7 @@
         <v>60400</v>
       </c>
       <c r="K516" t="n">
-        <v>4.347826086956522</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L516" t="n">
         <v>113630</v>
@@ -26837,7 +26853,7 @@
         <v>60700</v>
       </c>
       <c r="K517" t="n">
-        <v>-7.692307692307693</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L517" t="n">
         <v>113590</v>
@@ -26888,7 +26904,7 @@
         <v>60800</v>
       </c>
       <c r="K518" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L518" t="n">
         <v>113530</v>
@@ -26939,7 +26955,7 @@
         <v>61100</v>
       </c>
       <c r="K519" t="n">
-        <v>-7.142857142857142</v>
+        <v>-20</v>
       </c>
       <c r="L519" t="n">
         <v>113500</v>
@@ -26990,7 +27006,7 @@
         <v>61500</v>
       </c>
       <c r="K520" t="n">
-        <v>-13.33333333333333</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L520" t="n">
         <v>113430</v>
@@ -27041,7 +27057,7 @@
         <v>61500</v>
       </c>
       <c r="K521" t="n">
-        <v>-13.33333333333333</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L521" t="n">
         <v>113360</v>
@@ -27092,7 +27108,7 @@
         <v>61500</v>
       </c>
       <c r="K522" t="n">
-        <v>-13.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L522" t="n">
         <v>113310</v>
@@ -27143,7 +27159,7 @@
         <v>61800</v>
       </c>
       <c r="K523" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L523" t="n">
         <v>113320</v>
@@ -27194,7 +27210,7 @@
         <v>62100</v>
       </c>
       <c r="K524" t="n">
-        <v>-25</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L524" t="n">
         <v>113290</v>
@@ -27245,7 +27261,7 @@
         <v>62500</v>
       </c>
       <c r="K525" t="n">
-        <v>-17.64705882352941</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L525" t="n">
         <v>113290</v>
@@ -27296,7 +27312,7 @@
         <v>62700</v>
       </c>
       <c r="K526" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L526" t="n">
         <v>113260</v>
@@ -27347,7 +27363,7 @@
         <v>62700</v>
       </c>
       <c r="K527" t="n">
-        <v>-12.5</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L527" t="n">
         <v>113260</v>
@@ -27398,7 +27414,7 @@
         <v>63000</v>
       </c>
       <c r="K528" t="n">
-        <v>-5.88235294117647</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L528" t="n">
         <v>113300</v>
@@ -27449,7 +27465,7 @@
         <v>63000</v>
       </c>
       <c r="K529" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L529" t="n">
         <v>113310</v>
@@ -27500,7 +27516,7 @@
         <v>63000</v>
       </c>
       <c r="K530" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L530" t="n">
         <v>113360</v>
@@ -27551,7 +27567,7 @@
         <v>63200</v>
       </c>
       <c r="K531" t="n">
-        <v>0</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L531" t="n">
         <v>113430</v>
@@ -27602,7 +27618,7 @@
         <v>64700</v>
       </c>
       <c r="K532" t="n">
-        <v>34.69387755102041</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L532" t="n">
         <v>113650</v>
@@ -27653,7 +27669,7 @@
         <v>65100</v>
       </c>
       <c r="K533" t="n">
-        <v>48</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L533" t="n">
         <v>113880</v>
@@ -27704,7 +27720,7 @@
         <v>65500</v>
       </c>
       <c r="K534" t="n">
-        <v>35.84905660377358</v>
+        <v>60</v>
       </c>
       <c r="L534" t="n">
         <v>114100</v>
@@ -27755,7 +27771,7 @@
         <v>65800</v>
       </c>
       <c r="K535" t="n">
-        <v>27.27272727272727</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="L535" t="n">
         <v>114250</v>
@@ -27806,7 +27822,7 @@
         <v>65900</v>
       </c>
       <c r="K536" t="n">
-        <v>27.27272727272727</v>
+        <v>56.25</v>
       </c>
       <c r="L536" t="n">
         <v>114430</v>
@@ -27857,7 +27873,7 @@
         <v>67600</v>
       </c>
       <c r="K537" t="n">
-        <v>50.72463768115942</v>
+        <v>69.56521739130434</v>
       </c>
       <c r="L537" t="n">
         <v>114780</v>
@@ -27908,7 +27924,7 @@
         <v>68000</v>
       </c>
       <c r="K538" t="n">
-        <v>55.55555555555556</v>
+        <v>72</v>
       </c>
       <c r="L538" t="n">
         <v>115140</v>
@@ -27959,7 +27975,7 @@
         <v>71800</v>
       </c>
       <c r="K539" t="n">
-        <v>70.09345794392523</v>
+        <v>84.09090909090909</v>
       </c>
       <c r="L539" t="n">
         <v>115880</v>
@@ -28010,7 +28026,7 @@
         <v>75100</v>
       </c>
       <c r="K540" t="n">
-        <v>82.35294117647058</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L540" t="n">
         <v>116950</v>
@@ -28061,7 +28077,7 @@
         <v>78100</v>
       </c>
       <c r="K541" t="n">
-        <v>85.54216867469879</v>
+        <v>89.55223880597015</v>
       </c>
       <c r="L541" t="n">
         <v>118300</v>
@@ -28112,7 +28128,7 @@
         <v>81900</v>
       </c>
       <c r="K542" t="n">
-        <v>50.98039215686274</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="L542" t="n">
         <v>119120</v>
@@ -28163,7 +28179,7 @@
         <v>84500</v>
       </c>
       <c r="K543" t="n">
-        <v>55.94713656387665</v>
+        <v>56.84210526315789</v>
       </c>
       <c r="L543" t="n">
         <v>120160</v>
@@ -28214,7 +28230,7 @@
         <v>85400</v>
       </c>
       <c r="K544" t="n">
-        <v>51.931330472103</v>
+        <v>52.04081632653062</v>
       </c>
       <c r="L544" t="n">
         <v>121150</v>
@@ -28265,7 +28281,7 @@
         <v>86100</v>
       </c>
       <c r="K545" t="n">
-        <v>46.61016949152542</v>
+        <v>46.53465346534654</v>
       </c>
       <c r="L545" t="n">
         <v>122100</v>
@@ -28316,7 +28332,7 @@
         <v>87200</v>
       </c>
       <c r="K546" t="n">
-        <v>41.22448979591837</v>
+        <v>33.6734693877551</v>
       </c>
       <c r="L546" t="n">
         <v>122930</v>
@@ -28367,7 +28383,7 @@
         <v>90500</v>
       </c>
       <c r="K547" t="n">
-        <v>48.20143884892087</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="L547" t="n">
         <v>123920</v>
@@ -28418,7 +28434,7 @@
         <v>93700</v>
       </c>
       <c r="K548" t="n">
-        <v>32.24755700325733</v>
+        <v>11.41552511415525</v>
       </c>
       <c r="L548" t="n">
         <v>124550</v>
@@ -28469,7 +28485,7 @@
         <v>95800</v>
       </c>
       <c r="K549" t="n">
-        <v>36.58536585365854</v>
+        <v>6.280193236714976</v>
       </c>
       <c r="L549" t="n">
         <v>125010</v>
@@ -28520,7 +28536,7 @@
         <v>97200</v>
       </c>
       <c r="K550" t="n">
-        <v>30.99415204678363</v>
+        <v>-16.2303664921466</v>
       </c>
       <c r="L550" t="n">
         <v>125000</v>
@@ -28571,7 +28587,7 @@
         <v>99100</v>
       </c>
       <c r="K551" t="n">
-        <v>34.26183844011142</v>
+        <v>15.11627906976744</v>
       </c>
       <c r="L551" t="n">
         <v>124880</v>
@@ -28622,7 +28638,7 @@
         <v>100100</v>
       </c>
       <c r="K552" t="n">
-        <v>27.68361581920904</v>
+        <v>-6.41025641025641</v>
       </c>
       <c r="L552" t="n">
         <v>125040</v>
@@ -28673,7 +28689,7 @@
         <v>100900</v>
       </c>
       <c r="K553" t="n">
-        <v>28.49162011173184</v>
+        <v>4.516129032258064</v>
       </c>
       <c r="L553" t="n">
         <v>125020</v>
@@ -28724,7 +28740,7 @@
         <v>101000</v>
       </c>
       <c r="K554" t="n">
-        <v>29.57746478873239</v>
+        <v>8.724832214765101</v>
       </c>
       <c r="L554" t="n">
         <v>125080</v>
@@ -28775,7 +28791,7 @@
         <v>101800</v>
       </c>
       <c r="K555" t="n">
-        <v>27.77777777777778</v>
+        <v>10.95890410958904</v>
       </c>
       <c r="L555" t="n">
         <v>125130</v>
@@ -28826,7 +28842,7 @@
         <v>101900</v>
       </c>
       <c r="K556" t="n">
-        <v>27.77777777777778</v>
+        <v>-14.03508771929824</v>
       </c>
       <c r="L556" t="n">
         <v>125300</v>
@@ -28877,7 +28893,7 @@
         <v>102900</v>
       </c>
       <c r="K557" t="n">
-        <v>20.67988668555241</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="L557" t="n">
         <v>125040</v>
@@ -28928,7 +28944,7 @@
         <v>103900</v>
       </c>
       <c r="K558" t="n">
-        <v>22.00557103064067</v>
+        <v>-6.172839506172839</v>
       </c>
       <c r="L558" t="n">
         <v>125200</v>
@@ -28979,7 +28995,7 @@
         <v>104500</v>
       </c>
       <c r="K559" t="n">
-        <v>10.70336391437309</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="L559" t="n">
         <v>125090</v>
@@ -29030,7 +29046,7 @@
         <v>104600</v>
       </c>
       <c r="K560" t="n">
-        <v>1.016949152542373</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L560" t="n">
         <v>125130</v>
@@ -29081,7 +29097,7 @@
         <v>105000</v>
       </c>
       <c r="K561" t="n">
-        <v>-8.550185873605948</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="L561" t="n">
         <v>125020</v>
@@ -29132,7 +29148,7 @@
         <v>105100</v>
       </c>
       <c r="K562" t="n">
-        <v>6.03448275862069</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L562" t="n">
         <v>125000</v>
@@ -29183,7 +29199,7 @@
         <v>105500</v>
       </c>
       <c r="K563" t="n">
-        <v>-7.61904761904762</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L563" t="n">
         <v>124860</v>
@@ -29234,7 +29250,7 @@
         <v>105600</v>
       </c>
       <c r="K564" t="n">
-        <v>-2.97029702970297</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L564" t="n">
         <v>124740</v>
@@ -29285,7 +29301,7 @@
         <v>106700</v>
       </c>
       <c r="K565" t="n">
-        <v>5.825242718446602</v>
+        <v>12.5</v>
       </c>
       <c r="L565" t="n">
         <v>124810</v>
@@ -29336,7 +29352,7 @@
         <v>106900</v>
       </c>
       <c r="K566" t="n">
-        <v>10.65989847715736</v>
+        <v>35</v>
       </c>
       <c r="L566" t="n">
         <v>124850</v>
@@ -29387,7 +29403,7 @@
         <v>107700</v>
       </c>
       <c r="K567" t="n">
-        <v>-2.325581395348837</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L567" t="n">
         <v>125070</v>
@@ -29438,7 +29454,7 @@
         <v>108300</v>
       </c>
       <c r="K568" t="n">
-        <v>15.06849315068493</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L568" t="n">
         <v>125130</v>
@@ -29489,7 +29505,7 @@
         <v>108500</v>
       </c>
       <c r="K569" t="n">
-        <v>-0.7874015748031495</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L569" t="n">
         <v>125230</v>
@@ -29540,7 +29556,7 @@
         <v>108600</v>
       </c>
       <c r="K570" t="n">
-        <v>10.52631578947368</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L570" t="n">
         <v>125310</v>
@@ -29591,7 +29607,7 @@
         <v>109200</v>
       </c>
       <c r="K571" t="n">
-        <v>-12.87128712871287</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L571" t="n">
         <v>125290</v>
@@ -29642,7 +29658,7 @@
         <v>109400</v>
       </c>
       <c r="K572" t="n">
-        <v>-5.376344086021505</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L572" t="n">
         <v>125260</v>
@@ -29693,7 +29709,7 @@
         <v>109600</v>
       </c>
       <c r="K573" t="n">
-        <v>-12.64367816091954</v>
+        <v>5</v>
       </c>
       <c r="L573" t="n">
         <v>125290</v>
@@ -29744,7 +29760,7 @@
         <v>109700</v>
       </c>
       <c r="K574" t="n">
-        <v>-10.3448275862069</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L574" t="n">
         <v>125320</v>
@@ -29795,7 +29811,7 @@
         <v>109800</v>
       </c>
       <c r="K575" t="n">
-        <v>-2.5</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L575" t="n">
         <v>125230</v>
@@ -29846,7 +29862,7 @@
         <v>110100</v>
       </c>
       <c r="K576" t="n">
-        <v>-7.317073170731707</v>
+        <v>-75</v>
       </c>
       <c r="L576" t="n">
         <v>125130</v>
@@ -29897,7 +29913,7 @@
         <v>110600</v>
       </c>
       <c r="K577" t="n">
-        <v>11.68831168831169</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L577" t="n">
         <v>125000</v>
@@ -29948,7 +29964,7 @@
         <v>111000</v>
       </c>
       <c r="K578" t="n">
-        <v>4.225352112676056</v>
+        <v>-4</v>
       </c>
       <c r="L578" t="n">
         <v>124970</v>
@@ -29999,7 +30015,7 @@
         <v>111000</v>
       </c>
       <c r="K579" t="n">
-        <v>13.84615384615385</v>
+        <v>0</v>
       </c>
       <c r="L579" t="n">
         <v>124960</v>
@@ -30050,7 +30066,7 @@
         <v>111100</v>
       </c>
       <c r="K580" t="n">
-        <v>13.84615384615385</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L580" t="n">
         <v>124970</v>
@@ -30101,7 +30117,7 @@
         <v>111700</v>
       </c>
       <c r="K581" t="n">
-        <v>-1.492537313432836</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L581" t="n">
         <v>124980</v>
@@ -30152,7 +30168,7 @@
         <v>112200</v>
       </c>
       <c r="K582" t="n">
-        <v>-7.042253521126761</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L582" t="n">
         <v>124960</v>
@@ -30203,7 +30219,7 @@
         <v>112400</v>
       </c>
       <c r="K583" t="n">
-        <v>-4.347826086956522</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L583" t="n">
         <v>124900</v>
@@ -30254,7 +30270,7 @@
         <v>112600</v>
       </c>
       <c r="K584" t="n">
-        <v>-8.571428571428571</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L584" t="n">
         <v>124810</v>
@@ -30305,7 +30321,7 @@
         <v>112800</v>
       </c>
       <c r="K585" t="n">
-        <v>-24.59016393442623</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L585" t="n">
         <v>124750</v>
@@ -30356,7 +30372,7 @@
         <v>113000</v>
       </c>
       <c r="K586" t="n">
-        <v>-24.59016393442623</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L586" t="n">
         <v>124700</v>
@@ -30407,7 +30423,7 @@
         <v>113200</v>
       </c>
       <c r="K587" t="n">
-        <v>-38.18181818181819</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L587" t="n">
         <v>124620</v>
@@ -30458,7 +30474,7 @@
         <v>113200</v>
       </c>
       <c r="K588" t="n">
-        <v>-30.61224489795918</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L588" t="n">
         <v>124500</v>
@@ -30509,7 +30525,7 @@
         <v>113200</v>
       </c>
       <c r="K589" t="n">
-        <v>-27.65957446808511</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L589" t="n">
         <v>124380</v>
@@ -30560,7 +30576,7 @@
         <v>113800</v>
       </c>
       <c r="K590" t="n">
-        <v>-11.53846153846154</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L590" t="n">
         <v>124310</v>
@@ -30611,7 +30627,7 @@
         <v>113800</v>
       </c>
       <c r="K591" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L591" t="n">
         <v>124300</v>
@@ -30662,7 +30678,7 @@
         <v>114000</v>
       </c>
       <c r="K592" t="n">
-        <v>8.695652173913043</v>
+        <v>50</v>
       </c>
       <c r="L592" t="n">
         <v>124360</v>
@@ -30713,7 +30729,7 @@
         <v>114100</v>
       </c>
       <c r="K593" t="n">
-        <v>2.222222222222222</v>
+        <v>60</v>
       </c>
       <c r="L593" t="n">
         <v>124430</v>
@@ -30764,7 +30780,7 @@
         <v>114400</v>
       </c>
       <c r="K594" t="n">
-        <v>6.382978723404255</v>
+        <v>62.5</v>
       </c>
       <c r="L594" t="n">
         <v>124550</v>
@@ -30815,7 +30831,7 @@
         <v>114600</v>
       </c>
       <c r="K595" t="n">
-        <v>12.5</v>
+        <v>87.5</v>
       </c>
       <c r="L595" t="n">
         <v>124670</v>
@@ -30866,7 +30882,7 @@
         <v>114600</v>
       </c>
       <c r="K596" t="n">
-        <v>20</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L596" t="n">
         <v>124810</v>
@@ -30917,7 +30933,7 @@
         <v>114800</v>
       </c>
       <c r="K597" t="n">
-        <v>4.761904761904762</v>
+        <v>62.5</v>
       </c>
       <c r="L597" t="n">
         <v>124910</v>
@@ -30968,7 +30984,7 @@
         <v>115000</v>
       </c>
       <c r="K598" t="n">
-        <v>-10</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L598" t="n">
         <v>124990</v>
@@ -31019,7 +31035,7 @@
         <v>115500</v>
       </c>
       <c r="K599" t="n">
-        <v>2.222222222222222</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L599" t="n">
         <v>125120</v>
@@ -31070,7 +31086,7 @@
         <v>115500</v>
       </c>
       <c r="K600" t="n">
-        <v>0</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L600" t="n">
         <v>125190</v>
@@ -31121,7 +31137,7 @@
         <v>115500</v>
       </c>
       <c r="K601" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L601" t="n">
         <v>125260</v>
@@ -31172,7 +31188,7 @@
         <v>116000</v>
       </c>
       <c r="K602" t="n">
-        <v>42.10526315789473</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L602" t="n">
         <v>125360</v>
@@ -31223,7 +31239,7 @@
         <v>116100</v>
       </c>
       <c r="K603" t="n">
-        <v>51.35135135135135</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L603" t="n">
         <v>125480</v>
@@ -31274,7 +31290,7 @@
         <v>116200</v>
       </c>
       <c r="K604" t="n">
-        <v>55.55555555555556</v>
+        <v>37.5</v>
       </c>
       <c r="L604" t="n">
         <v>125560</v>
@@ -31325,7 +31341,7 @@
         <v>116400</v>
       </c>
       <c r="K605" t="n">
-        <v>55.55555555555556</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L605" t="n">
         <v>125640</v>
@@ -31376,7 +31392,7 @@
         <v>117000</v>
       </c>
       <c r="K606" t="n">
-        <v>40</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L606" t="n">
         <v>125660</v>
@@ -31427,7 +31443,7 @@
         <v>117100</v>
       </c>
       <c r="K607" t="n">
-        <v>33.33333333333333</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L607" t="n">
         <v>125690</v>
@@ -31478,7 +31494,7 @@
         <v>117100</v>
       </c>
       <c r="K608" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L608" t="n">
         <v>125740</v>
@@ -31529,7 +31545,7 @@
         <v>117400</v>
       </c>
       <c r="K609" t="n">
-        <v>38.09523809523809</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L609" t="n">
         <v>125770</v>
@@ -31580,7 +31596,7 @@
         <v>117700</v>
       </c>
       <c r="K610" t="n">
-        <v>17.94871794871795</v>
+        <v>0</v>
       </c>
       <c r="L610" t="n">
         <v>125770</v>
@@ -31631,7 +31647,7 @@
         <v>117800</v>
       </c>
       <c r="K611" t="n">
-        <v>15</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L611" t="n">
         <v>125760</v>
@@ -31682,7 +31698,7 @@
         <v>118100</v>
       </c>
       <c r="K612" t="n">
-        <v>2.439024390243902</v>
+        <v>-50</v>
       </c>
       <c r="L612" t="n">
         <v>125670</v>
@@ -31733,7 +31749,7 @@
         <v>118100</v>
       </c>
       <c r="K613" t="n">
-        <v>5</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L613" t="n">
         <v>125570</v>
@@ -31784,7 +31800,7 @@
         <v>118100</v>
       </c>
       <c r="K614" t="n">
-        <v>-2.702702702702703</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L614" t="n">
         <v>125480</v>
@@ -31835,7 +31851,7 @@
         <v>118100</v>
       </c>
       <c r="K615" t="n">
-        <v>-8.571428571428571</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L615" t="n">
         <v>125370</v>
@@ -31886,7 +31902,7 @@
         <v>118100</v>
       </c>
       <c r="K616" t="n">
-        <v>-8.571428571428571</v>
+        <v>-40</v>
       </c>
       <c r="L616" t="n">
         <v>125320</v>
@@ -31937,7 +31953,7 @@
         <v>118200</v>
       </c>
       <c r="K617" t="n">
-        <v>-5.88235294117647</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L617" t="n">
         <v>125270</v>
@@ -31988,7 +32004,7 @@
         <v>118400</v>
       </c>
       <c r="K618" t="n">
-        <v>-5.88235294117647</v>
+        <v>-100</v>
       </c>
       <c r="L618" t="n">
         <v>125200</v>
@@ -32039,7 +32055,7 @@
         <v>119100</v>
       </c>
       <c r="K619" t="n">
-        <v>-38.88888888888889</v>
+        <v>-100</v>
       </c>
       <c r="L619" t="n">
         <v>125030</v>
@@ -32090,7 +32106,7 @@
         <v>119300</v>
       </c>
       <c r="K620" t="n">
-        <v>-31.57894736842105</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L620" t="n">
         <v>124910</v>
@@ -32141,7 +32157,7 @@
         <v>119400</v>
       </c>
       <c r="K621" t="n">
-        <v>-33.33333333333333</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L621" t="n">
         <v>124790</v>
@@ -32192,7 +32208,7 @@
         <v>119500</v>
       </c>
       <c r="K622" t="n">
-        <v>-54.28571428571428</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L622" t="n">
         <v>124690</v>
@@ -32243,7 +32259,7 @@
         <v>119500</v>
       </c>
       <c r="K623" t="n">
-        <v>-58.82352941176471</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L623" t="n">
         <v>124590</v>
@@ -32294,7 +32310,7 @@
         <v>119500</v>
       </c>
       <c r="K624" t="n">
-        <v>-57.57575757575758</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L624" t="n">
         <v>124490</v>
@@ -32345,7 +32361,7 @@
         <v>119600</v>
       </c>
       <c r="K625" t="n">
-        <v>-68.75</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L625" t="n">
         <v>124380</v>
@@ -32396,7 +32412,7 @@
         <v>120000</v>
       </c>
       <c r="K626" t="n">
-        <v>-66.66666666666666</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L626" t="n">
         <v>124230</v>
@@ -32447,7 +32463,7 @@
         <v>120100</v>
       </c>
       <c r="K627" t="n">
-        <v>-66.66666666666666</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L627" t="n">
         <v>124080</v>
@@ -32498,7 +32514,7 @@
         <v>120300</v>
       </c>
       <c r="K628" t="n">
-        <v>-68.75</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L628" t="n">
         <v>123930</v>
@@ -32549,7 +32565,7 @@
         <v>120500</v>
       </c>
       <c r="K629" t="n">
-        <v>-74.19354838709677</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L629" t="n">
         <v>123870</v>
@@ -32600,7 +32616,7 @@
         <v>120700</v>
       </c>
       <c r="K630" t="n">
-        <v>-60</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L630" t="n">
         <v>123810</v>
@@ -32651,7 +32667,7 @@
         <v>120900</v>
       </c>
       <c r="K631" t="n">
-        <v>-61.29032258064516</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L631" t="n">
         <v>123740</v>
@@ -32702,7 +32718,7 @@
         <v>121500</v>
       </c>
       <c r="K632" t="n">
-        <v>-29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L632" t="n">
         <v>123740</v>
@@ -32753,7 +32769,7 @@
         <v>121600</v>
       </c>
       <c r="K633" t="n">
-        <v>-25.71428571428571</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L633" t="n">
         <v>123750</v>
@@ -32804,7 +32820,7 @@
         <v>121700</v>
       </c>
       <c r="K634" t="n">
-        <v>-22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L634" t="n">
         <v>123770</v>
@@ -32855,7 +32871,7 @@
         <v>122300</v>
       </c>
       <c r="K635" t="n">
-        <v>-33.33333333333333</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L635" t="n">
         <v>123740</v>
@@ -32906,7 +32922,7 @@
         <v>122300</v>
       </c>
       <c r="K636" t="n">
-        <v>-33.33333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L636" t="n">
         <v>123750</v>
@@ -32957,7 +32973,7 @@
         <v>122500</v>
       </c>
       <c r="K637" t="n">
-        <v>-25.58139534883721</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L637" t="n">
         <v>123790</v>
@@ -33008,7 +33024,7 @@
         <v>122700</v>
       </c>
       <c r="K638" t="n">
-        <v>-25.58139534883721</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L638" t="n">
         <v>123830</v>
@@ -33059,7 +33075,7 @@
         <v>122900</v>
       </c>
       <c r="K639" t="n">
-        <v>-5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L639" t="n">
         <v>123870</v>
@@ -33110,7 +33126,7 @@
         <v>123200</v>
       </c>
       <c r="K640" t="n">
-        <v>-2.564102564102564</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L640" t="n">
         <v>123920</v>
@@ -33161,7 +33177,7 @@
         <v>123200</v>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L641" t="n">
         <v>123990</v>
@@ -33212,7 +33228,7 @@
         <v>123300</v>
       </c>
       <c r="K642" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L642" t="n">
         <v>123990</v>
@@ -33263,7 +33279,7 @@
         <v>123300</v>
       </c>
       <c r="K643" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="L643" t="n">
         <v>123980</v>
@@ -33314,7 +33330,7 @@
         <v>123500</v>
       </c>
       <c r="K644" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L644" t="n">
         <v>123980</v>
@@ -33365,7 +33381,7 @@
         <v>124000</v>
       </c>
       <c r="K645" t="n">
-        <v>18.18181818181818</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L645" t="n">
         <v>124090</v>
@@ -33416,7 +33432,7 @@
         <v>124200</v>
       </c>
       <c r="K646" t="n">
-        <v>23.80952380952381</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L646" t="n">
         <v>124180</v>
@@ -33467,7 +33483,7 @@
         <v>124800</v>
       </c>
       <c r="K647" t="n">
-        <v>36.17021276595745</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L647" t="n">
         <v>124310</v>
@@ -33518,7 +33534,7 @@
         <v>124900</v>
       </c>
       <c r="K648" t="n">
-        <v>43.47826086956522</v>
+        <v>70</v>
       </c>
       <c r="L648" t="n">
         <v>124470</v>
@@ -33569,7 +33585,7 @@
         <v>125100</v>
       </c>
       <c r="K649" t="n">
-        <v>43.47826086956522</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L649" t="n">
         <v>124630</v>
@@ -33620,7 +33636,7 @@
         <v>125300</v>
       </c>
       <c r="K650" t="n">
-        <v>34.78260869565217</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L650" t="n">
         <v>124740</v>
@@ -33671,7 +33687,7 @@
         <v>125600</v>
       </c>
       <c r="K651" t="n">
-        <v>44.68085106382978</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L651" t="n">
         <v>124880</v>
@@ -33722,7 +33738,7 @@
         <v>126100</v>
       </c>
       <c r="K652" t="n">
-        <v>21.73913043478261</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L652" t="n">
         <v>124980</v>
@@ -33773,7 +33789,7 @@
         <v>126100</v>
       </c>
       <c r="K653" t="n">
-        <v>20</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L653" t="n">
         <v>125080</v>
@@ -33824,7 +33840,7 @@
         <v>126900</v>
       </c>
       <c r="K654" t="n">
-        <v>30.76923076923077</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L654" t="n">
         <v>125240</v>
@@ -33875,7 +33891,7 @@
         <v>126900</v>
       </c>
       <c r="K655" t="n">
-        <v>47.82608695652174</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L655" t="n">
         <v>125350</v>
@@ -33926,7 +33942,7 @@
         <v>126900</v>
       </c>
       <c r="K656" t="n">
-        <v>47.82608695652174</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L656" t="n">
         <v>125480</v>
@@ -33977,7 +33993,7 @@
         <v>126900</v>
       </c>
       <c r="K657" t="n">
-        <v>45.45454545454545</v>
+        <v>30</v>
       </c>
       <c r="L657" t="n">
         <v>125550</v>
@@ -34028,7 +34044,7 @@
         <v>127100</v>
       </c>
       <c r="K658" t="n">
-        <v>45.45454545454545</v>
+        <v>10</v>
       </c>
       <c r="L658" t="n">
         <v>125590</v>
@@ -34079,7 +34095,7 @@
         <v>127400</v>
       </c>
       <c r="K659" t="n">
-        <v>33.33333333333333</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L659" t="n">
         <v>125580</v>
@@ -34130,7 +34146,7 @@
         <v>127500</v>
       </c>
       <c r="K660" t="n">
-        <v>25.58139534883721</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L660" t="n">
         <v>125580</v>
@@ -34181,7 +34197,7 @@
         <v>127500</v>
       </c>
       <c r="K661" t="n">
-        <v>25.58139534883721</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L661" t="n">
         <v>125550</v>
@@ -34232,7 +34248,7 @@
         <v>127800</v>
       </c>
       <c r="K662" t="n">
-        <v>20</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L662" t="n">
         <v>125540</v>
@@ -34283,7 +34299,7 @@
         <v>127800</v>
       </c>
       <c r="K663" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L663" t="n">
         <v>125530</v>
@@ -34334,7 +34350,7 @@
         <v>127800</v>
       </c>
       <c r="K664" t="n">
-        <v>16.27906976744186</v>
+        <v>-100</v>
       </c>
       <c r="L664" t="n">
         <v>125440</v>
@@ -34385,7 +34401,7 @@
         <v>127800</v>
       </c>
       <c r="K665" t="n">
-        <v>5.263157894736842</v>
+        <v>-100</v>
       </c>
       <c r="L665" t="n">
         <v>125350</v>
@@ -34436,7 +34452,7 @@
         <v>128200</v>
       </c>
       <c r="K666" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L666" t="n">
         <v>125220</v>
@@ -34487,7 +34503,7 @@
         <v>128600</v>
       </c>
       <c r="K667" t="n">
-        <v>-5.263157894736842</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L667" t="n">
         <v>125130</v>
@@ -34538,7 +34554,7 @@
         <v>128800</v>
       </c>
       <c r="K668" t="n">
-        <v>-12.82051282051282</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L668" t="n">
         <v>125040</v>
@@ -34589,7 +34605,7 @@
         <v>129000</v>
       </c>
       <c r="K669" t="n">
-        <v>-23.07692307692308</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L669" t="n">
         <v>124960</v>
@@ -34640,7 +34656,7 @@
         <v>129000</v>
       </c>
       <c r="K670" t="n">
-        <v>-18.91891891891892</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L670" t="n">
         <v>124890</v>
@@ -34691,7 +34707,7 @@
         <v>129200</v>
       </c>
       <c r="K671" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L671" t="n">
         <v>124800</v>
@@ -34742,7 +34758,7 @@
         <v>129500</v>
       </c>
       <c r="K672" t="n">
-        <v>-11.76470588235294</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L672" t="n">
         <v>124770</v>
@@ -34793,7 +34809,7 @@
         <v>129600</v>
       </c>
       <c r="K673" t="n">
-        <v>-14.28571428571428</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L673" t="n">
         <v>124730</v>
@@ -34844,7 +34860,7 @@
         <v>129700</v>
       </c>
       <c r="K674" t="n">
-        <v>-50</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L674" t="n">
         <v>124680</v>
@@ -34895,7 +34911,7 @@
         <v>130000</v>
       </c>
       <c r="K675" t="n">
-        <v>-54.83870967741935</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L675" t="n">
         <v>124600</v>
@@ -34946,7 +34962,7 @@
         <v>130200</v>
       </c>
       <c r="K676" t="n">
-        <v>-45.45454545454545</v>
+        <v>-37.5</v>
       </c>
       <c r="L676" t="n">
         <v>124580</v>
@@ -34997,7 +35013,7 @@
         <v>130500</v>
       </c>
       <c r="K677" t="n">
-        <v>-50</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L677" t="n">
         <v>124490</v>
@@ -35048,7 +35064,7 @@
         <v>130500</v>
       </c>
       <c r="K678" t="n">
-        <v>-47.05882352941176</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L678" t="n">
         <v>124420</v>
@@ -35099,7 +35115,7 @@
         <v>130500</v>
       </c>
       <c r="K679" t="n">
-        <v>-41.93548387096774</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L679" t="n">
         <v>124370</v>
@@ -35150,7 +35166,7 @@
         <v>130600</v>
       </c>
       <c r="K680" t="n">
-        <v>-35.48387096774194</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L680" t="n">
         <v>124330</v>
@@ -35201,7 +35217,7 @@
         <v>130700</v>
       </c>
       <c r="K681" t="n">
-        <v>-31.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L681" t="n">
         <v>124320</v>
@@ -35252,7 +35268,7 @@
         <v>130700</v>
       </c>
       <c r="K682" t="n">
-        <v>-24.13793103448276</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L682" t="n">
         <v>124280</v>
@@ -35303,7 +35319,7 @@
         <v>130900</v>
       </c>
       <c r="K683" t="n">
-        <v>-29.03225806451613</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L683" t="n">
         <v>124230</v>
@@ -35354,7 +35370,7 @@
         <v>131200</v>
       </c>
       <c r="K684" t="n">
-        <v>-17.64705882352941</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L684" t="n">
         <v>124220</v>
@@ -35405,7 +35421,7 @@
         <v>131600</v>
       </c>
       <c r="K685" t="n">
-        <v>-26.31578947368421</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L685" t="n">
         <v>124200</v>
@@ -35456,7 +35472,7 @@
         <v>131700</v>
       </c>
       <c r="K686" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L686" t="n">
         <v>124170</v>
@@ -35507,7 +35523,7 @@
         <v>131900</v>
       </c>
       <c r="K687" t="n">
-        <v>-21.21212121212121</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L687" t="n">
         <v>124190</v>
@@ -35558,7 +35574,7 @@
         <v>132000</v>
       </c>
       <c r="K688" t="n">
-        <v>-18.75</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L688" t="n">
         <v>124200</v>
@@ -35609,7 +35625,7 @@
         <v>132000</v>
       </c>
       <c r="K689" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L689" t="n">
         <v>124210</v>
@@ -35660,7 +35676,7 @@
         <v>132100</v>
       </c>
       <c r="K690" t="n">
-        <v>-16.12903225806452</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L690" t="n">
         <v>124200</v>
@@ -35711,7 +35727,7 @@
         <v>132200</v>
       </c>
       <c r="K691" t="n">
-        <v>-13.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L691" t="n">
         <v>124170</v>
@@ -35762,7 +35778,7 @@
         <v>132200</v>
       </c>
       <c r="K692" t="n">
-        <v>-25.92592592592592</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L692" t="n">
         <v>124140</v>
@@ -35813,7 +35829,7 @@
         <v>132200</v>
       </c>
       <c r="K693" t="n">
-        <v>-23.07692307692308</v>
+        <v>-40</v>
       </c>
       <c r="L693" t="n">
         <v>124130</v>
@@ -35864,7 +35880,7 @@
         <v>132500</v>
       </c>
       <c r="K694" t="n">
-        <v>-7.142857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L694" t="n">
         <v>124120</v>
@@ -35915,7 +35931,7 @@
         <v>132800</v>
       </c>
       <c r="K695" t="n">
-        <v>-7.142857142857142</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L695" t="n">
         <v>124120</v>
@@ -35966,7 +35982,7 @@
         <v>133000</v>
       </c>
       <c r="K696" t="n">
-        <v>-21.42857142857143</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L696" t="n">
         <v>124090</v>
@@ -36017,7 +36033,7 @@
         <v>133100</v>
       </c>
       <c r="K697" t="n">
-        <v>-7.692307692307693</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L697" t="n">
         <v>124050</v>
@@ -36068,7 +36084,7 @@
         <v>133400</v>
       </c>
       <c r="K698" t="n">
-        <v>-17.24137931034483</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L698" t="n">
         <v>123990</v>
@@ -36119,7 +36135,7 @@
         <v>133500</v>
       </c>
       <c r="K699" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L699" t="n">
         <v>123920</v>
@@ -36170,7 +36186,7 @@
         <v>133600</v>
       </c>
       <c r="K700" t="n">
-        <v>-20</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L700" t="n">
         <v>123870</v>
@@ -36221,7 +36237,7 @@
         <v>134100</v>
       </c>
       <c r="K701" t="n">
-        <v>-5.88235294117647</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L701" t="n">
         <v>123880</v>
@@ -36272,7 +36288,7 @@
         <v>134100</v>
       </c>
       <c r="K702" t="n">
-        <v>-5.88235294117647</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L702" t="n">
         <v>123890</v>
@@ -36323,7 +36339,7 @@
         <v>134400</v>
       </c>
       <c r="K703" t="n">
-        <v>-8.571428571428571</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L703" t="n">
         <v>123870</v>
@@ -36374,7 +36390,7 @@
         <v>134500</v>
       </c>
       <c r="K704" t="n">
-        <v>-15.15151515151515</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L704" t="n">
         <v>123830</v>
@@ -36425,7 +36441,7 @@
         <v>134600</v>
       </c>
       <c r="K705" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L705" t="n">
         <v>123830</v>
@@ -36476,7 +36492,7 @@
         <v>134600</v>
       </c>
       <c r="K706" t="n">
-        <v>-3.448275862068965</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L706" t="n">
         <v>123850</v>
@@ -36527,7 +36543,7 @@
         <v>134600</v>
       </c>
       <c r="K707" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L707" t="n">
         <v>123860</v>
@@ -36578,7 +36594,7 @@
         <v>134700</v>
       </c>
       <c r="K708" t="n">
-        <v>-3.703703703703703</v>
+        <v>50</v>
       </c>
       <c r="L708" t="n">
         <v>123910</v>
@@ -36629,7 +36645,7 @@
         <v>134800</v>
       </c>
       <c r="K709" t="n">
-        <v>-7.142857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L709" t="n">
         <v>123960</v>
@@ -36680,7 +36696,7 @@
         <v>135000</v>
       </c>
       <c r="K710" t="n">
-        <v>3.448275862068965</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L710" t="n">
         <v>124020</v>
@@ -36731,7 +36747,7 @@
         <v>135000</v>
       </c>
       <c r="K711" t="n">
-        <v>7.142857142857142</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L711" t="n">
         <v>124030</v>
@@ -36782,7 +36798,7 @@
         <v>135100</v>
       </c>
       <c r="K712" t="n">
-        <v>3.448275862068965</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L712" t="n">
         <v>124030</v>
@@ -36833,7 +36849,7 @@
         <v>135200</v>
       </c>
       <c r="K713" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L713" t="n">
         <v>124050</v>
@@ -36986,7 +37002,7 @@
         <v>135400</v>
       </c>
       <c r="K716" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L716" t="n">
         <v>124050</v>
@@ -37037,7 +37053,7 @@
         <v>135600</v>
       </c>
       <c r="K717" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L717" t="n">
         <v>124070</v>
@@ -37088,7 +37104,7 @@
         <v>135600</v>
       </c>
       <c r="K718" t="n">
-        <v>27.27272727272727</v>
+        <v>25</v>
       </c>
       <c r="L718" t="n">
         <v>124080</v>
@@ -37139,7 +37155,7 @@
         <v>135800</v>
       </c>
       <c r="K719" t="n">
-        <v>21.73913043478261</v>
+        <v>-25</v>
       </c>
       <c r="L719" t="n">
         <v>124080</v>
@@ -37190,7 +37206,7 @@
         <v>136000</v>
       </c>
       <c r="K720" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L720" t="n">
         <v>124080</v>
@@ -37241,7 +37257,7 @@
         <v>136200</v>
       </c>
       <c r="K721" t="n">
-        <v>-4.761904761904762</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L721" t="n">
         <v>124060</v>
@@ -37292,7 +37308,7 @@
         <v>136200</v>
       </c>
       <c r="K722" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L722" t="n">
         <v>124050</v>
@@ -37394,7 +37410,7 @@
         <v>136400</v>
       </c>
       <c r="K724" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L724" t="n">
         <v>124080</v>
@@ -37445,7 +37461,7 @@
         <v>136500</v>
       </c>
       <c r="K725" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L725" t="n">
         <v>124090</v>
@@ -37496,7 +37512,7 @@
         <v>137000</v>
       </c>
       <c r="K726" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L726" t="n">
         <v>124050</v>
@@ -37547,7 +37563,7 @@
         <v>137000</v>
       </c>
       <c r="K727" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L727" t="n">
         <v>123990</v>
@@ -37598,7 +37614,7 @@
         <v>137200</v>
       </c>
       <c r="K728" t="n">
-        <v>-28</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L728" t="n">
         <v>123910</v>
@@ -37649,7 +37665,7 @@
         <v>138000</v>
       </c>
       <c r="K729" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L729" t="n">
         <v>123930</v>
@@ -37700,7 +37716,7 @@
         <v>138300</v>
       </c>
       <c r="K730" t="n">
-        <v>-9.090909090909092</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L730" t="n">
         <v>123900</v>
@@ -37751,7 +37767,7 @@
         <v>138400</v>
       </c>
       <c r="K731" t="n">
-        <v>-11.76470588235294</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L731" t="n">
         <v>123880</v>
@@ -37802,7 +37818,7 @@
         <v>138600</v>
       </c>
       <c r="K732" t="n">
-        <v>-14.28571428571428</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L732" t="n">
         <v>123840</v>
@@ -37853,7 +37869,7 @@
         <v>138600</v>
       </c>
       <c r="K733" t="n">
-        <v>-11.76470588235294</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L733" t="n">
         <v>123800</v>
@@ -37904,7 +37920,7 @@
         <v>138700</v>
       </c>
       <c r="K734" t="n">
-        <v>-11.76470588235294</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L734" t="n">
         <v>123730</v>
@@ -37955,7 +37971,7 @@
         <v>138800</v>
       </c>
       <c r="K735" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L735" t="n">
         <v>123660</v>
@@ -38006,7 +38022,7 @@
         <v>139000</v>
       </c>
       <c r="K736" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L736" t="n">
         <v>123660</v>
@@ -38057,7 +38073,7 @@
         <v>139200</v>
       </c>
       <c r="K737" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L737" t="n">
         <v>123680</v>
@@ -38108,7 +38124,7 @@
         <v>139600</v>
       </c>
       <c r="K738" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L738" t="n">
         <v>123680</v>
@@ -38159,7 +38175,7 @@
         <v>139900</v>
       </c>
       <c r="K739" t="n">
-        <v>-7.317073170731707</v>
+        <v>-12.5</v>
       </c>
       <c r="L739" t="n">
         <v>123630</v>
@@ -38210,7 +38226,7 @@
         <v>139900</v>
       </c>
       <c r="K740" t="n">
-        <v>-12.82051282051282</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L740" t="n">
         <v>123610</v>
@@ -38261,7 +38277,7 @@
         <v>140000</v>
       </c>
       <c r="K741" t="n">
-        <v>-5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L741" t="n">
         <v>123610</v>
@@ -38312,7 +38328,7 @@
         <v>140000</v>
       </c>
       <c r="K742" t="n">
-        <v>-5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L742" t="n">
         <v>123630</v>
@@ -38363,7 +38379,7 @@
         <v>140200</v>
       </c>
       <c r="K743" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L743" t="n">
         <v>123670</v>
@@ -38414,7 +38430,7 @@
         <v>140300</v>
       </c>
       <c r="K744" t="n">
-        <v>-2.564102564102564</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L744" t="n">
         <v>123730</v>
@@ -38465,7 +38481,7 @@
         <v>140500</v>
       </c>
       <c r="K745" t="n">
-        <v>5</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L745" t="n">
         <v>123820</v>
@@ -38516,7 +38532,7 @@
         <v>140500</v>
       </c>
       <c r="K746" t="n">
-        <v>20</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L746" t="n">
         <v>123890</v>
@@ -38567,7 +38583,7 @@
         <v>140700</v>
       </c>
       <c r="K747" t="n">
-        <v>24.32432432432433</v>
+        <v>100</v>
       </c>
       <c r="L747" t="n">
         <v>123960</v>
@@ -38618,7 +38634,7 @@
         <v>140800</v>
       </c>
       <c r="K748" t="n">
-        <v>27.77777777777778</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L748" t="n">
         <v>124060</v>
@@ -38669,7 +38685,7 @@
         <v>141100</v>
       </c>
       <c r="K749" t="n">
-        <v>16.12903225806452</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L749" t="n">
         <v>124160</v>
@@ -38720,7 +38736,7 @@
         <v>141200</v>
       </c>
       <c r="K750" t="n">
-        <v>24.13793103448276</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L750" t="n">
         <v>124250</v>
@@ -38771,7 +38787,7 @@
         <v>141400</v>
       </c>
       <c r="K751" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L751" t="n">
         <v>124310</v>
@@ -38822,7 +38838,7 @@
         <v>141600</v>
       </c>
       <c r="K752" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L752" t="n">
         <v>124390</v>
@@ -38873,7 +38889,7 @@
         <v>141800</v>
       </c>
       <c r="K753" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L753" t="n">
         <v>124430</v>
@@ -38924,7 +38940,7 @@
         <v>141900</v>
       </c>
       <c r="K754" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L754" t="n">
         <v>124450</v>
@@ -38975,7 +38991,7 @@
         <v>142100</v>
       </c>
       <c r="K755" t="n">
-        <v>33.33333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="L755" t="n">
         <v>124470</v>
@@ -39026,7 +39042,7 @@
         <v>142300</v>
       </c>
       <c r="K756" t="n">
-        <v>21.21212121212121</v>
+        <v>-12.5</v>
       </c>
       <c r="L756" t="n">
         <v>124470</v>
@@ -39077,7 +39093,7 @@
         <v>142400</v>
       </c>
       <c r="K757" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="L757" t="n">
         <v>124460</v>
@@ -39128,7 +39144,7 @@
         <v>142400</v>
       </c>
       <c r="K758" t="n">
-        <v>35.71428571428572</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L758" t="n">
         <v>124460</v>
@@ -39179,7 +39195,7 @@
         <v>142500</v>
       </c>
       <c r="K759" t="n">
-        <v>30.76923076923077</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L759" t="n">
         <v>124440</v>
@@ -39230,7 +39246,7 @@
         <v>142500</v>
       </c>
       <c r="K760" t="n">
-        <v>30.76923076923077</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L760" t="n">
         <v>124430</v>
@@ -39281,7 +39297,7 @@
         <v>142500</v>
       </c>
       <c r="K761" t="n">
-        <v>28</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L761" t="n">
         <v>124440</v>
@@ -39332,7 +39348,7 @@
         <v>143000</v>
       </c>
       <c r="K762" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L762" t="n">
         <v>124380</v>
@@ -39383,7 +39399,7 @@
         <v>143000</v>
       </c>
       <c r="K763" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L763" t="n">
         <v>124340</v>
@@ -39434,7 +39450,7 @@
         <v>143100</v>
       </c>
       <c r="K764" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L764" t="n">
         <v>124320</v>
@@ -39485,7 +39501,7 @@
         <v>143500</v>
       </c>
       <c r="K765" t="n">
-        <v>6.666666666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L765" t="n">
         <v>124320</v>
@@ -39536,7 +39552,7 @@
         <v>143700</v>
       </c>
       <c r="K766" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L766" t="n">
         <v>124320</v>
@@ -39587,7 +39603,7 @@
         <v>143800</v>
       </c>
       <c r="K767" t="n">
-        <v>-9.67741935483871</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L767" t="n">
         <v>124300</v>
@@ -39638,7 +39654,7 @@
         <v>143900</v>
       </c>
       <c r="K768" t="n">
-        <v>-9.67741935483871</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L768" t="n">
         <v>124270</v>
@@ -39689,7 +39705,7 @@
         <v>144100</v>
       </c>
       <c r="K769" t="n">
-        <v>-13.33333333333333</v>
+        <v>-12.5</v>
       </c>
       <c r="L769" t="n">
         <v>124250</v>
@@ -39740,7 +39756,7 @@
         <v>144300</v>
       </c>
       <c r="K770" t="n">
-        <v>-16.12903225806452</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L770" t="n">
         <v>124210</v>

--- a/BackTest/2019-10-21 BackTest BSV.xlsx
+++ b/BackTest/2019-10-21 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,14 +682,10 @@
         <v>13.75887599999992</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>111000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>111000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -719,19 +715,11 @@
         <v>20.77117599999992</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>111000</v>
-      </c>
-      <c r="J10" t="n">
-        <v>111000</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -760,19 +748,11 @@
         <v>-25.24982400000009</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>111600</v>
-      </c>
-      <c r="J11" t="n">
-        <v>111000</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -801,14 +781,10 @@
         <v>-25.24982400000009</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>111100</v>
-      </c>
-      <c r="J12" t="n">
-        <v>111100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -838,19 +814,11 @@
         <v>-32.77882400000009</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>111100</v>
-      </c>
-      <c r="J13" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -879,19 +847,11 @@
         <v>-32.49882400000008</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>110900</v>
-      </c>
-      <c r="J14" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -920,14 +880,10 @@
         <v>-32.85882400000008</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>111100</v>
-      </c>
-      <c r="J15" t="n">
-        <v>111100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -957,19 +913,11 @@
         <v>-33.38882400000008</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>110800</v>
-      </c>
-      <c r="J16" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -998,19 +946,11 @@
         <v>-33.15882400000009</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>110700</v>
-      </c>
-      <c r="J17" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1039,19 +979,11 @@
         <v>-33.15882400000009</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>111000</v>
-      </c>
-      <c r="J18" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1080,19 +1012,11 @@
         <v>-11.58492400000009</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>111000</v>
-      </c>
-      <c r="J19" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,19 +1045,11 @@
         <v>-11.93312400000009</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>111100</v>
-      </c>
-      <c r="J20" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1162,19 +1078,11 @@
         <v>-11.93312400000009</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>111000</v>
-      </c>
-      <c r="J21" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1203,19 +1111,11 @@
         <v>-6.90762400000009</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111000</v>
-      </c>
-      <c r="J22" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1244,19 +1144,11 @@
         <v>-6.50762400000009</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>111100</v>
-      </c>
-      <c r="J23" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1285,19 +1177,11 @@
         <v>-32.62962400000009</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J24" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1326,19 +1210,11 @@
         <v>87.28747599999991</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>111600</v>
-      </c>
-      <c r="J25" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1367,19 +1243,11 @@
         <v>55.29747599999992</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>111900</v>
-      </c>
-      <c r="J26" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1408,19 +1276,11 @@
         <v>38.65397599999991</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J27" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1449,19 +1309,11 @@
         <v>40.77207599999991</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J28" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1490,19 +1342,11 @@
         <v>40.77207599999991</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J29" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1531,19 +1375,11 @@
         <v>40.77207599999991</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J30" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1572,19 +1408,11 @@
         <v>92.79137599999991</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J31" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1613,19 +1441,11 @@
         <v>172.4012759999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>112000</v>
-      </c>
-      <c r="J32" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,19 +1474,11 @@
         <v>144.2532759999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>112100</v>
-      </c>
-      <c r="J33" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1695,19 +1507,11 @@
         <v>144.2532759999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>112000</v>
-      </c>
-      <c r="J34" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1736,19 +1540,11 @@
         <v>144.2532759999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>112000</v>
-      </c>
-      <c r="J35" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1777,19 +1573,11 @@
         <v>146.3972759999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>112000</v>
-      </c>
-      <c r="J36" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1818,19 +1606,11 @@
         <v>141.9212759999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>112100</v>
-      </c>
-      <c r="J37" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1859,19 +1639,11 @@
         <v>141.9212759999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>111900</v>
-      </c>
-      <c r="J38" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1900,19 +1672,11 @@
         <v>141.7311759999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>111900</v>
-      </c>
-      <c r="J39" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1941,19 +1705,11 @@
         <v>141.7544759999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>111600</v>
-      </c>
-      <c r="J40" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1982,19 +1738,11 @@
         <v>142.1444759999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J41" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2026,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2065,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2104,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2143,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2179,19 +1903,11 @@
         <v>126.4649759999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J46" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2223,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2262,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2298,19 +2002,11 @@
         <v>207.0732759999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>112100</v>
-      </c>
-      <c r="J49" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2342,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2381,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2420,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2459,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2498,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2537,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2576,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2618,13 +2272,9 @@
         <v>112500</v>
       </c>
       <c r="J57" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>112500</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2659,11 +2309,11 @@
         <v>112500</v>
       </c>
       <c r="J58" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2694,17 +2344,15 @@
         <v>206.2170759999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2741,7 +2389,7 @@
         <v>111800</v>
       </c>
       <c r="J60" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2782,7 +2430,7 @@
         <v>112100</v>
       </c>
       <c r="J61" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2823,7 +2471,7 @@
         <v>112000</v>
       </c>
       <c r="J62" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2864,7 +2512,7 @@
         <v>112000</v>
       </c>
       <c r="J63" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2905,7 +2553,7 @@
         <v>112300</v>
       </c>
       <c r="J64" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2946,7 +2594,7 @@
         <v>112300</v>
       </c>
       <c r="J65" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2981,11 +2629,13 @@
         <v>322.310176</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>112600</v>
+      </c>
       <c r="J66" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3024,7 +2674,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3063,7 +2713,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3102,7 +2752,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3141,7 +2791,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3180,7 +2830,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3219,7 +2869,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3258,7 +2908,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3297,7 +2947,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3336,7 +2986,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3375,7 +3025,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3414,7 +3064,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3453,7 +3103,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3492,7 +3142,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3531,7 +3181,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3570,7 +3220,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3609,7 +3259,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3648,7 +3298,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3687,7 +3337,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3726,7 +3376,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3765,7 +3415,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3804,7 +3454,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3843,7 +3493,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3882,7 +3532,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3921,7 +3571,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3960,7 +3610,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3999,7 +3649,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4038,7 +3688,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4077,7 +3727,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4116,7 +3766,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4155,7 +3805,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4194,7 +3844,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4233,7 +3883,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4272,7 +3922,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4311,7 +3961,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4350,7 +4000,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4389,7 +4039,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4428,7 +4078,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4467,7 +4117,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4506,7 +4156,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4545,7 +4195,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4584,7 +4234,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4623,7 +4273,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4662,7 +4312,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4701,7 +4351,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4740,7 +4390,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4779,7 +4429,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4818,7 +4468,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4857,7 +4507,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4896,7 +4546,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4935,7 +4585,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4974,7 +4624,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5013,7 +4663,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5052,7 +4702,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5091,7 +4741,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5130,7 +4780,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5169,7 +4819,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5208,7 +4858,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5247,7 +4897,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5286,7 +4936,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5325,7 +4975,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5364,7 +5014,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5403,7 +5053,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5442,7 +5092,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5481,7 +5131,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5520,7 +5170,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5559,7 +5209,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5598,7 +5248,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5637,7 +5287,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5676,7 +5326,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5715,7 +5365,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5754,7 +5404,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5793,7 +5443,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5832,7 +5482,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5871,7 +5521,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5910,7 +5560,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5949,7 +5599,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5988,7 +5638,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6027,7 +5677,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6066,7 +5716,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6105,7 +5755,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6144,7 +5794,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6183,7 +5833,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6222,7 +5872,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6261,7 +5911,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6300,7 +5950,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6339,7 +5989,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6378,7 +6028,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6417,7 +6067,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6456,7 +6106,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6495,7 +6145,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6534,7 +6184,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6573,7 +6223,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6612,7 +6262,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6651,7 +6301,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6690,7 +6340,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6729,7 +6379,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6768,7 +6418,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6807,7 +6457,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6846,7 +6496,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6885,7 +6535,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6924,7 +6574,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6963,7 +6613,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7002,7 +6652,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7041,7 +6691,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7080,7 +6730,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7119,7 +6769,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7158,7 +6808,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7197,7 +6847,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7236,7 +6886,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7275,7 +6925,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7314,7 +6964,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7353,7 +7003,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7392,7 +7042,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7431,7 +7081,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7470,7 +7120,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7509,7 +7159,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7548,7 +7198,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7587,7 +7237,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7626,7 +7276,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7665,7 +7315,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7704,7 +7354,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7743,7 +7393,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7782,7 +7432,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7821,7 +7471,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7860,7 +7510,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7899,7 +7549,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7938,7 +7588,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7973,11 +7623,13 @@
         <v>422.3339577</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>111800</v>
+      </c>
       <c r="J194" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8012,11 +7664,13 @@
         <v>218.9022577</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>112000</v>
+      </c>
       <c r="J195" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8055,7 +7709,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8090,11 +7744,13 @@
         <v>217.3682577</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>111900</v>
+      </c>
       <c r="J197" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8129,11 +7785,13 @@
         <v>217.3682577</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>111600</v>
+      </c>
       <c r="J198" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8168,11 +7826,13 @@
         <v>217.3682577</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>111600</v>
+      </c>
       <c r="J199" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8207,11 +7867,13 @@
         <v>339.9843577</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>111600</v>
+      </c>
       <c r="J200" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8246,11 +7908,13 @@
         <v>334.5612577</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>112000</v>
+      </c>
       <c r="J201" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8285,11 +7949,13 @@
         <v>334.5612577</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>111900</v>
+      </c>
       <c r="J202" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8328,7 +7994,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8367,7 +8033,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8402,11 +8068,13 @@
         <v>320.0882577</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>111700</v>
+      </c>
       <c r="J205" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8441,11 +8109,13 @@
         <v>320.0882577</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>111700</v>
+      </c>
       <c r="J206" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8480,11 +8150,13 @@
         <v>320.0882577</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>111700</v>
+      </c>
       <c r="J207" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8519,11 +8191,13 @@
         <v>320.0882577</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>111700</v>
+      </c>
       <c r="J208" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8558,11 +8232,13 @@
         <v>245.0169577</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>111700</v>
+      </c>
       <c r="J209" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8597,11 +8273,13 @@
         <v>245.3569577</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>111600</v>
+      </c>
       <c r="J210" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8636,11 +8314,13 @@
         <v>245.3569577</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>111700</v>
+      </c>
       <c r="J211" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8675,11 +8355,13 @@
         <v>239.3769577</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>111700</v>
+      </c>
       <c r="J212" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8714,11 +8396,13 @@
         <v>240.2169577</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>111400</v>
+      </c>
       <c r="J213" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8753,11 +8437,13 @@
         <v>240.2169577</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>111700</v>
+      </c>
       <c r="J214" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8792,11 +8478,13 @@
         <v>240.2169577</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>111700</v>
+      </c>
       <c r="J215" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8831,11 +8519,13 @@
         <v>240.0664577</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>111700</v>
+      </c>
       <c r="J216" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8870,11 +8560,13 @@
         <v>241.8380577</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>111500</v>
+      </c>
       <c r="J217" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8909,11 +8601,13 @@
         <v>241.8380577</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>111700</v>
+      </c>
       <c r="J218" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8948,11 +8642,13 @@
         <v>219.7291577</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>111700</v>
+      </c>
       <c r="J219" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8987,11 +8683,13 @@
         <v>220.9296577</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>111400</v>
+      </c>
       <c r="J220" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9026,11 +8724,13 @@
         <v>223.6116577</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>111600</v>
+      </c>
       <c r="J221" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9065,11 +8765,13 @@
         <v>220.7910577</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>111700</v>
+      </c>
       <c r="J222" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9104,11 +8806,13 @@
         <v>307.6557577</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>111600</v>
+      </c>
       <c r="J223" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9143,11 +8847,13 @@
         <v>310.3052577</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>111700</v>
+      </c>
       <c r="J224" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9182,11 +8888,13 @@
         <v>236.2895577</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>112000</v>
+      </c>
       <c r="J225" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9221,11 +8929,13 @@
         <v>236.2895577</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>111900</v>
+      </c>
       <c r="J226" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9260,11 +8970,13 @@
         <v>236.2895577</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>111900</v>
+      </c>
       <c r="J227" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9303,7 +9015,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9342,7 +9054,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9381,7 +9093,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9420,7 +9132,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9459,7 +9171,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9498,7 +9210,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9537,7 +9249,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9576,7 +9288,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9615,7 +9327,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9654,7 +9366,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9693,7 +9405,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9732,7 +9444,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9771,7 +9483,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9810,7 +9522,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9849,7 +9561,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9884,11 +9596,13 @@
         <v>282.5510449500001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>111500</v>
+      </c>
       <c r="J243" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9927,7 +9641,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9966,7 +9680,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10005,7 +9719,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10040,11 +9754,13 @@
         <v>282.3810449500001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>111800</v>
+      </c>
       <c r="J247" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10083,7 +9799,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10118,11 +9834,13 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>111700</v>
+      </c>
       <c r="J249" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10157,11 +9875,13 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>111700</v>
+      </c>
       <c r="J250" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10196,11 +9916,13 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>111700</v>
+      </c>
       <c r="J251" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10235,11 +9957,13 @@
         <v>270.1294449500001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>111700</v>
+      </c>
       <c r="J252" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10274,11 +9998,13 @@
         <v>270.1294449500001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>112000</v>
+      </c>
       <c r="J253" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10317,7 +10043,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10352,11 +10078,13 @@
         <v>269.1294449500001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>112000</v>
+      </c>
       <c r="J255" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10391,11 +10119,13 @@
         <v>236.6290449500001</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>111900</v>
+      </c>
       <c r="J256" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10430,11 +10160,13 @@
         <v>242.1272449500001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>111800</v>
+      </c>
       <c r="J257" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10469,11 +10201,13 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>111900</v>
+      </c>
       <c r="J258" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10508,11 +10242,13 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>111800</v>
+      </c>
       <c r="J259" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10547,11 +10283,13 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>111800</v>
+      </c>
       <c r="J260" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10586,11 +10324,13 @@
         <v>250.2762449500001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>111800</v>
+      </c>
       <c r="J261" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10625,11 +10365,13 @@
         <v>247.6320449500001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>111900</v>
+      </c>
       <c r="J262" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10664,11 +10406,13 @@
         <v>233.5029449500001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>111800</v>
+      </c>
       <c r="J263" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10703,11 +10447,13 @@
         <v>248.5020449500001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>111700</v>
+      </c>
       <c r="J264" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10742,11 +10488,13 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>111800</v>
+      </c>
       <c r="J265" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10781,11 +10529,13 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>111700</v>
+      </c>
       <c r="J266" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10820,11 +10570,13 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>111700</v>
+      </c>
       <c r="J267" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10859,11 +10611,13 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>111700</v>
+      </c>
       <c r="J268" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10898,11 +10652,13 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>111700</v>
+      </c>
       <c r="J269" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10937,11 +10693,13 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>111700</v>
+      </c>
       <c r="J270" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10976,11 +10734,13 @@
         <v>225.8519449500001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>111700</v>
+      </c>
       <c r="J271" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11015,11 +10775,13 @@
         <v>146.3524449500001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>111600</v>
+      </c>
       <c r="J272" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11054,11 +10816,13 @@
         <v>71.94394495000006</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>111100</v>
+      </c>
       <c r="J273" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11099,7 +10863,7 @@
         <v>111000</v>
       </c>
       <c r="J274" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11140,7 +10904,7 @@
         <v>111300</v>
       </c>
       <c r="J275" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11181,7 +10945,7 @@
         <v>111400</v>
       </c>
       <c r="J276" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11222,7 +10986,7 @@
         <v>111200</v>
       </c>
       <c r="J277" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11263,7 +11027,7 @@
         <v>111600</v>
       </c>
       <c r="J278" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11304,7 +11068,7 @@
         <v>111400</v>
       </c>
       <c r="J279" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11345,7 +11109,7 @@
         <v>111200</v>
       </c>
       <c r="J280" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11386,7 +11150,7 @@
         <v>111100</v>
       </c>
       <c r="J281" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11427,7 +11191,7 @@
         <v>111000</v>
       </c>
       <c r="J282" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11468,7 +11232,7 @@
         <v>111200</v>
       </c>
       <c r="J283" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11509,7 +11273,7 @@
         <v>111700</v>
       </c>
       <c r="J284" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11550,7 +11314,7 @@
         <v>111800</v>
       </c>
       <c r="J285" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11591,7 +11355,7 @@
         <v>111700</v>
       </c>
       <c r="J286" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11632,7 +11396,7 @@
         <v>111600</v>
       </c>
       <c r="J287" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11673,7 +11437,7 @@
         <v>111500</v>
       </c>
       <c r="J288" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11714,7 +11478,7 @@
         <v>111500</v>
       </c>
       <c r="J289" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11755,7 +11519,7 @@
         <v>111500</v>
       </c>
       <c r="J290" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11796,7 +11560,7 @@
         <v>111600</v>
       </c>
       <c r="J291" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11837,7 +11601,7 @@
         <v>111500</v>
       </c>
       <c r="J292" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11878,7 +11642,7 @@
         <v>111600</v>
       </c>
       <c r="J293" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11913,11 +11677,13 @@
         <v>21.00054495000006</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>111600</v>
+      </c>
       <c r="J294" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11958,7 +11724,7 @@
         <v>111600</v>
       </c>
       <c r="J295" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11999,7 +11765,7 @@
         <v>112000</v>
       </c>
       <c r="J296" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12040,7 +11806,7 @@
         <v>111900</v>
       </c>
       <c r="J297" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12075,11 +11841,13 @@
         <v>33.42689196000006</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>112100</v>
+      </c>
       <c r="J298" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12120,7 +11888,7 @@
         <v>112100</v>
       </c>
       <c r="J299" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12161,7 +11929,7 @@
         <v>112100</v>
       </c>
       <c r="J300" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12202,7 +11970,7 @@
         <v>112200</v>
       </c>
       <c r="J301" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12237,11 +12005,13 @@
         <v>76.70518135000006</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>112300</v>
+      </c>
       <c r="J302" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12276,11 +12046,13 @@
         <v>76.70518135000006</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>112300</v>
+      </c>
       <c r="J303" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12315,11 +12087,13 @@
         <v>102.8985813500001</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>112300</v>
+      </c>
       <c r="J304" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12354,11 +12128,13 @@
         <v>109.0212813500001</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>112400</v>
+      </c>
       <c r="J305" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12393,11 +12169,13 @@
         <v>127.92128135</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>112500</v>
+      </c>
       <c r="J306" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12432,11 +12210,13 @@
         <v>257.08578135</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>112600</v>
+      </c>
       <c r="J307" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12471,11 +12251,13 @@
         <v>299.7460813500001</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>112900</v>
+      </c>
       <c r="J308" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12510,11 +12292,13 @@
         <v>299.7460813500001</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>113000</v>
+      </c>
       <c r="J309" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12553,7 +12337,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12592,7 +12376,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12631,7 +12415,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12670,7 +12454,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12709,7 +12493,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12748,7 +12532,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12787,7 +12571,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12826,7 +12610,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12865,7 +12649,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12904,7 +12688,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12943,7 +12727,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12982,7 +12766,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -13021,7 +12805,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13060,7 +12844,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13099,7 +12883,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13138,7 +12922,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13177,7 +12961,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13216,7 +13000,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13255,7 +13039,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13294,7 +13078,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13333,7 +13117,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13372,7 +13156,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13411,7 +13195,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13450,7 +13234,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13489,7 +13273,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13528,7 +13312,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13567,7 +13351,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13606,7 +13390,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13645,7 +13429,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13684,7 +13468,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13723,7 +13507,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13762,7 +13546,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13801,7 +13585,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13840,7 +13624,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13879,7 +13663,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13918,7 +13702,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13957,7 +13741,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13996,7 +13780,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -14035,7 +13819,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -14074,7 +13858,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -14113,7 +13897,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -14152,7 +13936,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -14191,7 +13975,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -14230,7 +14014,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -14269,7 +14053,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -14308,7 +14092,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -14347,7 +14131,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -14386,7 +14170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -14425,7 +14209,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -14464,7 +14248,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -14503,7 +14287,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14542,7 +14326,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14581,7 +14365,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14620,7 +14404,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14659,7 +14443,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14698,7 +14482,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14737,7 +14521,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14776,7 +14560,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14815,7 +14599,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14854,7 +14638,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14893,7 +14677,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14932,7 +14716,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14971,7 +14755,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -15010,7 +14794,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -15049,7 +14833,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -15088,7 +14872,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -15127,7 +14911,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -15166,7 +14950,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -15205,7 +14989,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -15244,7 +15028,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -15283,7 +15067,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -15322,7 +15106,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -15361,7 +15145,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -15400,7 +15184,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -15439,7 +15223,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -15478,7 +15262,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -15517,7 +15301,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -15556,7 +15340,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15595,7 +15379,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15634,7 +15418,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15673,7 +15457,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15712,7 +15496,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15751,7 +15535,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15790,7 +15574,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15829,7 +15613,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15868,7 +15652,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -15907,7 +15691,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -15946,7 +15730,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -15985,7 +15769,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -16024,7 +15808,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -16063,7 +15847,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -16102,7 +15886,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -16141,7 +15925,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -16180,7 +15964,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -16215,11 +15999,13 @@
         <v>6.56571962000016</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>113100</v>
+      </c>
       <c r="J404" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -16254,11 +16040,13 @@
         <v>10.47761962000016</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>112900</v>
+      </c>
       <c r="J405" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -16293,11 +16081,13 @@
         <v>10.80761962000016</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>113000</v>
+      </c>
       <c r="J406" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -16332,11 +16122,13 @@
         <v>9.83291962000016</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>113200</v>
+      </c>
       <c r="J407" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -16371,11 +16163,13 @@
         <v>9.83291962000016</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>113000</v>
+      </c>
       <c r="J408" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -16410,11 +16204,13 @@
         <v>3.83291962000016</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>113000</v>
+      </c>
       <c r="J409" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -16449,11 +16245,13 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>112900</v>
+      </c>
       <c r="J410" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -16488,11 +16286,13 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>113000</v>
+      </c>
       <c r="J411" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -16527,11 +16327,13 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>113000</v>
+      </c>
       <c r="J412" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -16566,11 +16368,13 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>113000</v>
+      </c>
       <c r="J413" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -16605,11 +16409,13 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>113000</v>
+      </c>
       <c r="J414" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -16644,11 +16450,13 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>113000</v>
+      </c>
       <c r="J415" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -16683,11 +16491,13 @@
         <v>30.54381962000016</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>113000</v>
+      </c>
       <c r="J416" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -16722,11 +16532,13 @@
         <v>30.54381962000016</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>113100</v>
+      </c>
       <c r="J417" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -16761,11 +16573,13 @@
         <v>30.88381962000016</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>113100</v>
+      </c>
       <c r="J418" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -16800,11 +16614,13 @@
         <v>-3.845780379999837</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>113200</v>
+      </c>
       <c r="J419" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -16839,11 +16655,13 @@
         <v>4.513019620000163</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>112700</v>
+      </c>
       <c r="J420" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -16878,11 +16696,13 @@
         <v>5.013019620000163</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>112800</v>
+      </c>
       <c r="J421" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -16917,11 +16737,13 @@
         <v>1.775019620000163</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>113300</v>
+      </c>
       <c r="J422" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -16956,11 +16778,13 @@
         <v>0.1560196200001631</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>113100</v>
+      </c>
       <c r="J423" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -16995,11 +16819,13 @@
         <v>0.1560196200001631</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>113000</v>
+      </c>
       <c r="J424" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -17034,11 +16860,13 @@
         <v>-0.2489803799998369</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>113000</v>
+      </c>
       <c r="J425" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -17073,11 +16901,13 @@
         <v>31.98101962000016</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>112900</v>
+      </c>
       <c r="J426" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -17112,11 +16942,13 @@
         <v>0.8430196200001596</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>113100</v>
+      </c>
       <c r="J427" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -17151,11 +16983,13 @@
         <v>0.8430196200001596</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>112800</v>
+      </c>
       <c r="J428" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -17190,11 +17024,13 @@
         <v>0.8430196200001596</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>112800</v>
+      </c>
       <c r="J429" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -17229,11 +17065,13 @@
         <v>15.14301962000016</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>112800</v>
+      </c>
       <c r="J430" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -17268,11 +17106,13 @@
         <v>15.14301962000016</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>113100</v>
+      </c>
       <c r="J431" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -17307,11 +17147,13 @@
         <v>15.71301962000016</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>113100</v>
+      </c>
       <c r="J432" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -17346,11 +17188,13 @@
         <v>15.71301962000016</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>113200</v>
+      </c>
       <c r="J433" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -17385,11 +17229,13 @@
         <v>-494.5411803799998</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>113200</v>
+      </c>
       <c r="J434" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -17424,11 +17270,13 @@
         <v>-492.8840803799998</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>112800</v>
+      </c>
       <c r="J435" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -17463,11 +17311,13 @@
         <v>121.3586196200002</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>112900</v>
+      </c>
       <c r="J436" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -17502,11 +17352,13 @@
         <v>143.5808196200002</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>113000</v>
+      </c>
       <c r="J437" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -17545,7 +17397,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -17584,7 +17436,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -17623,7 +17475,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -17662,7 +17514,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17701,7 +17553,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17740,7 +17592,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17779,7 +17631,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17818,7 +17670,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -17857,7 +17709,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -17896,7 +17748,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -17935,7 +17787,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -17974,7 +17826,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -18013,7 +17865,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -18052,7 +17904,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -18091,7 +17943,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -18130,7 +17982,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -18169,7 +18021,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -18208,7 +18060,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -18247,7 +18099,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -18286,7 +18138,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -18325,7 +18177,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -18364,7 +18216,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -18403,7 +18255,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -18442,7 +18294,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -18481,7 +18333,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -18520,7 +18372,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -18559,7 +18411,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -18598,7 +18450,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -18637,7 +18489,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -18676,7 +18528,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -18715,7 +18567,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -18754,7 +18606,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -18793,7 +18645,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -18832,7 +18684,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -18871,7 +18723,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -18910,7 +18762,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -18949,7 +18801,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -18988,7 +18840,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -19027,7 +18879,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -19066,7 +18918,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -19105,7 +18957,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -19144,7 +18996,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -19183,7 +19035,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -19222,7 +19074,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -19261,7 +19113,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -19300,7 +19152,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -19339,7 +19191,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -19378,7 +19230,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -19417,7 +19269,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -19456,7 +19308,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -19495,7 +19347,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -19534,7 +19386,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -19573,7 +19425,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -19612,7 +19464,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -19651,7 +19503,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -19690,7 +19542,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -19729,7 +19581,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -19768,7 +19620,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -19807,7 +19659,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -19846,7 +19698,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -19885,7 +19737,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -19924,7 +19776,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -19963,7 +19815,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -20002,7 +19854,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -20041,7 +19893,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -20080,7 +19932,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -20119,7 +19971,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -20158,7 +20010,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -20197,7 +20049,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -20236,7 +20088,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -20275,7 +20127,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -20314,7 +20166,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -20353,7 +20205,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -20392,7 +20244,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -20431,7 +20283,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -20470,7 +20322,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -20509,7 +20361,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -20548,7 +20400,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -20587,7 +20439,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -20626,7 +20478,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -20665,7 +20517,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -20704,7 +20556,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -20743,7 +20595,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -20782,7 +20634,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -20821,7 +20673,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -20860,7 +20712,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -20899,7 +20751,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -20938,7 +20790,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -20977,7 +20829,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -21016,7 +20868,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -21055,7 +20907,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -21094,7 +20946,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -21133,7 +20985,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -21172,7 +21024,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -21211,7 +21063,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -21250,7 +21102,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -21289,7 +21141,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -21328,7 +21180,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -21367,7 +21219,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -21406,7 +21258,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -21445,7 +21297,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -21484,7 +21336,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -21523,7 +21375,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -21562,7 +21414,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -21601,7 +21453,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -21640,7 +21492,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -21679,7 +21531,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -21718,7 +21570,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -21757,7 +21609,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -21796,7 +21648,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -21835,7 +21687,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -21874,7 +21726,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -21913,7 +21765,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -21952,7 +21804,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -21991,7 +21843,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -22030,7 +21882,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -22069,7 +21921,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -22108,7 +21960,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -22147,7 +21999,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -22186,7 +22038,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -22225,7 +22077,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -22264,7 +22116,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -22303,7 +22155,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -22342,7 +22194,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -22381,7 +22233,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -22420,7 +22272,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -22459,7 +22311,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -22498,7 +22350,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -22537,7 +22389,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -22576,7 +22428,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -22615,7 +22467,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -22654,7 +22506,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -22693,7 +22545,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -22732,7 +22584,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -22771,7 +22623,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -22810,7 +22662,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -22849,7 +22701,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -22888,7 +22740,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -22927,7 +22779,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -22966,7 +22818,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -23005,7 +22857,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -23044,7 +22896,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -23083,7 +22935,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -23122,7 +22974,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -23161,7 +23013,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -23200,7 +23052,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -23239,7 +23091,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -23278,7 +23130,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -23317,7 +23169,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -23356,7 +23208,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -23395,7 +23247,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -23434,7 +23286,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -23473,7 +23325,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -23512,7 +23364,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -23551,7 +23403,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -23590,7 +23442,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -23629,7 +23481,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -23668,7 +23520,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -23707,7 +23559,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -23746,7 +23598,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -23785,7 +23637,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -23824,7 +23676,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -23859,21 +23711,23 @@
         <v>3049.423385770001</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>111100</v>
+        <v>112500</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
+        <v>1.126555555555556</v>
+      </c>
+      <c r="M600" t="n">
+        <v>1.019021739130435</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -23898,17 +23752,11 @@
         <v>2335.30928577</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23937,17 +23785,11 @@
         <v>3513.05281203</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23979,14 +23821,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24018,14 +23854,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24057,14 +23887,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24096,14 +23920,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24135,14 +23953,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24174,14 +23986,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24213,14 +24019,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24252,14 +24052,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24291,14 +24085,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24330,14 +24118,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24369,14 +24151,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24408,14 +24184,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24447,14 +24217,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24486,14 +24250,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24525,14 +24283,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24564,14 +24316,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24603,14 +24349,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24642,14 +24382,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24681,14 +24415,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -24720,14 +24448,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -24759,14 +24481,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -24798,14 +24514,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -24837,14 +24547,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -24873,23 +24577,15 @@
         <v>2728.27660262</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
-        <v>1.131813681368137</v>
-      </c>
-      <c r="M626" t="n">
-        <v>1.010869565217391</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -24914,7 +24610,7 @@
         <v>2371.01480262</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24947,7 +24643,7 @@
         <v>2236.71180262</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24980,7 +24676,7 @@
         <v>2140.20820262</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -25079,7 +24775,7 @@
         <v>2066.29500262</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -25112,7 +24808,7 @@
         <v>2201.13950262</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -25145,7 +24841,7 @@
         <v>1761.95328869</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -25178,7 +24874,7 @@
         <v>1656.24207939</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -25343,7 +25039,7 @@
         <v>1946.01645288</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -25409,7 +25105,7 @@
         <v>1376.22923494</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -25442,7 +25138,7 @@
         <v>1361.053934939999</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -25475,7 +25171,7 @@
         <v>1663.521234939999</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -25508,7 +25204,7 @@
         <v>1379.692434939999</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -25541,7 +25237,7 @@
         <v>1396.667056349999</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25574,7 +25270,7 @@
         <v>1396.667056349999</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25607,7 +25303,7 @@
         <v>1396.667056349999</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25640,7 +25336,7 @@
         <v>1404.865856349999</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25673,7 +25369,7 @@
         <v>1404.865856349999</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25706,7 +25402,7 @@
         <v>1468.087256349999</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -25739,7 +25435,7 @@
         <v>1391.247356349999</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25772,7 +25468,7 @@
         <v>1558.279318959999</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25805,7 +25501,7 @@
         <v>1570.208311389999</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25838,7 +25534,7 @@
         <v>1570.208311389999</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25871,7 +25567,7 @@
         <v>1339.598111389999</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25904,7 +25600,7 @@
         <v>1334.373711389999</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25937,7 +25633,7 @@
         <v>1553.977511389999</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25970,7 +25666,7 @@
         <v>1553.977511389999</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -26003,7 +25699,7 @@
         <v>1553.977511389999</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -26036,7 +25732,7 @@
         <v>1904.248511389999</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -26069,7 +25765,7 @@
         <v>2320.213411389999</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -26102,7 +25798,7 @@
         <v>2183.431911389999</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -26135,7 +25831,7 @@
         <v>2486.393911389999</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -26168,7 +25864,7 @@
         <v>2268.991111389999</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -26201,7 +25897,7 @@
         <v>2093.972711389999</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -26234,7 +25930,7 @@
         <v>2093.972711389999</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -26267,7 +25963,7 @@
         <v>2096.839411389999</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26300,7 +25996,7 @@
         <v>2088.839411389999</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -26333,7 +26029,7 @@
         <v>1964.602211389999</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -26366,7 +26062,7 @@
         <v>1866.38711139</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -26399,7 +26095,7 @@
         <v>1866.38711139</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -26432,7 +26128,7 @@
         <v>1866.38711139</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -26465,7 +26161,7 @@
         <v>1866.38711139</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26498,7 +26194,7 @@
         <v>1866.38711139</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -26531,7 +26227,7 @@
         <v>1738.774211389999</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26564,7 +26260,7 @@
         <v>1450.193411389999</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26597,7 +26293,7 @@
         <v>1250.370211389999</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26630,7 +26326,7 @@
         <v>1347.99841139</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26663,7 +26359,7 @@
         <v>1196.77291139</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26696,7 +26392,7 @@
         <v>1186.51291139</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26729,7 +26425,7 @@
         <v>1186.51291139</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26762,7 +26458,7 @@
         <v>1186.51291139</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26795,7 +26491,7 @@
         <v>1036.607411389999</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26828,7 +26524,7 @@
         <v>1006.582011389999</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26861,7 +26557,7 @@
         <v>990.0769113899995</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26894,7 +26590,7 @@
         <v>885.7154113899995</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26927,7 +26623,7 @@
         <v>1101.161911389999</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -26960,7 +26656,7 @@
         <v>1119.335611389999</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26993,7 +26689,7 @@
         <v>1119.205611389999</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -27026,7 +26722,7 @@
         <v>1202.891611389999</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -27059,7 +26755,7 @@
         <v>1231.164411389999</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -27092,7 +26788,7 @@
         <v>1310.661811389999</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -27125,7 +26821,7 @@
         <v>1247.666527159999</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -27158,7 +26854,7 @@
         <v>1247.666527159999</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -27191,7 +26887,7 @@
         <v>1248.734527159999</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -27224,7 +26920,7 @@
         <v>1241.089327159999</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -27257,7 +26953,7 @@
         <v>1241.114027159999</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -27290,7 +26986,7 @@
         <v>1295.869327159999</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -27323,7 +27019,7 @@
         <v>1295.869327159999</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -27356,7 +27052,7 @@
         <v>1277.068827159999</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -27422,7 +27118,7 @@
         <v>1286.104327159999</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -27488,7 +27184,7 @@
         <v>1278.420127159999</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -27521,7 +27217,7 @@
         <v>1636.231009399999</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -27554,7 +27250,7 @@
         <v>1742.127309399999</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27587,7 +27283,7 @@
         <v>1919.713309399999</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27620,7 +27316,7 @@
         <v>1790.427196119999</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27653,7 +27349,7 @@
         <v>1845.020296119999</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -27686,7 +27382,7 @@
         <v>1798.818996119999</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27719,7 +27415,7 @@
         <v>1798.818996119999</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -27752,7 +27448,7 @@
         <v>1850.153896119999</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -27785,7 +27481,7 @@
         <v>1850.153896119999</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27818,7 +27514,7 @@
         <v>1850.153896119999</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -27851,7 +27547,7 @@
         <v>1850.153896119999</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27884,7 +27580,7 @@
         <v>1840.123996119999</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -27917,7 +27613,7 @@
         <v>1826.305296119999</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -27950,7 +27646,7 @@
         <v>1816.205296119999</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27983,7 +27679,7 @@
         <v>1816.205296119999</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -28016,7 +27712,7 @@
         <v>1701.792011529999</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -28049,7 +27745,7 @@
         <v>1701.792011529999</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -28082,7 +27778,7 @@
         <v>1701.792011529999</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -28115,7 +27811,7 @@
         <v>1701.792011529999</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -28148,7 +27844,7 @@
         <v>1695.721911529999</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -28181,7 +27877,7 @@
         <v>1696.270111529999</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -28214,7 +27910,7 @@
         <v>1674.450111529999</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -28247,7 +27943,7 @@
         <v>1501.434611529999</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -28280,7 +27976,7 @@
         <v>1501.434611529999</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -28313,7 +28009,7 @@
         <v>1499.370511529999</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -28346,7 +28042,7 @@
         <v>1500.170511529999</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -28379,7 +28075,7 @@
         <v>1465.399411529999</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -28412,7 +28108,7 @@
         <v>1426.941511529999</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -28445,7 +28141,7 @@
         <v>1388.450011529999</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -28478,7 +28174,7 @@
         <v>1406.138411529999</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -28511,7 +28207,7 @@
         <v>1402.230011529999</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -28544,7 +28240,7 @@
         <v>1402.230011529999</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -28577,7 +28273,7 @@
         <v>1402.230011529999</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -28610,7 +28306,7 @@
         <v>1422.310311529999</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -28643,7 +28339,7 @@
         <v>1462.894211529999</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -28676,7 +28372,7 @@
         <v>1462.894211529999</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -28709,7 +28405,7 @@
         <v>1439.237011529999</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -28742,7 +28438,7 @@
         <v>1557.636492109999</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -28775,7 +28471,7 @@
         <v>1492.713019449999</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -28808,7 +28504,7 @@
         <v>1582.613019449999</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -28841,7 +28537,7 @@
         <v>1583.527719449999</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -28874,7 +28570,7 @@
         <v>1557.768719449999</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -28907,7 +28603,7 @@
         <v>1557.768719449999</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -28940,7 +28636,7 @@
         <v>1473.463119449999</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -28973,7 +28669,7 @@
         <v>1234.574119449999</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -29006,7 +28702,7 @@
         <v>1234.574119449999</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -29039,7 +28735,7 @@
         <v>1234.574119449999</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -29072,7 +28768,7 @@
         <v>1250.746219449999</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -29105,7 +28801,7 @@
         <v>1243.890819449999</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -29138,7 +28834,7 @@
         <v>1235.939719449999</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -29171,7 +28867,7 @@
         <v>1236.169719449999</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -29204,7 +28900,7 @@
         <v>1212.596019449999</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -29237,7 +28933,7 @@
         <v>1181.116819449999</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -29270,7 +28966,7 @@
         <v>1181.625319449999</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -29303,7 +28999,7 @@
         <v>1181.965319449999</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -29336,7 +29032,7 @@
         <v>1181.965319449999</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -29369,7 +29065,7 @@
         <v>1158.571419449999</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -31228,6 +30924,6 @@
       <c r="M818" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BSV.xlsx
+++ b/BackTest/2019-10-21 BackTest BSV.xlsx
@@ -550,11 +550,17 @@
         <v>-10.49182400000008</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>111000</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +593,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +626,17 @@
         <v>13.75887599999992</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>111200</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +665,17 @@
         <v>13.75887599999992</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>111000</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +704,17 @@
         <v>13.75887599999992</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>111000</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +743,17 @@
         <v>20.77117599999992</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>111000</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +782,17 @@
         <v>-25.24982400000009</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>111600</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +821,17 @@
         <v>-25.24982400000009</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>111100</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +860,17 @@
         <v>-32.77882400000009</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>111100</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +899,17 @@
         <v>-32.49882400000008</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>110900</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +938,17 @@
         <v>-32.85882400000008</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>111100</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +977,17 @@
         <v>-33.38882400000008</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>110800</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1016,17 @@
         <v>-33.15882400000009</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>110700</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1055,17 @@
         <v>-33.15882400000009</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>111000</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1094,17 @@
         <v>-11.58492400000009</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>111000</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1133,17 @@
         <v>-11.93312400000009</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>111100</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1172,17 @@
         <v>-11.93312400000009</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>111000</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1211,17 @@
         <v>-6.90762400000009</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>111000</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1250,17 @@
         <v>-6.50762400000009</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>111100</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1289,17 @@
         <v>-32.62962400000009</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>111800</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1328,17 @@
         <v>87.28747599999991</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>111600</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1367,17 @@
         <v>55.29747599999992</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>111900</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1406,17 @@
         <v>38.65397599999991</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>111800</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1445,17 @@
         <v>40.77207599999991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>111700</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1484,17 @@
         <v>40.77207599999991</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>111800</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1523,17 @@
         <v>40.77207599999991</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>111800</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1562,17 @@
         <v>92.79137599999991</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>111800</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1601,17 @@
         <v>172.4012759999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>112000</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1640,17 @@
         <v>144.2532759999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>112100</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1679,17 @@
         <v>144.2532759999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>112000</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1718,17 @@
         <v>144.2532759999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>112000</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1757,17 @@
         <v>146.3972759999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>112000</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1800,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1833,17 @@
         <v>141.9212759999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>111900</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1872,17 @@
         <v>141.7311759999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>111900</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1911,17 @@
         <v>141.7544759999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>111600</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1950,17 @@
         <v>142.1444759999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>111800</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1989,17 @@
         <v>141.5054759999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>112200</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2028,17 @@
         <v>118.4974759999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>112100</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2067,17 @@
         <v>117.2149759999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>112000</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2106,17 @@
         <v>107.2149759999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>111900</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2145,17 @@
         <v>126.4649759999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>111800</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2184,17 @@
         <v>125.0719759999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>112000</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2223,17 @@
         <v>215.6911759999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>111800</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2262,17 @@
         <v>207.0732759999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>112100</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2301,17 @@
         <v>207.6031759999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>111900</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2340,17 @@
         <v>207.9650759999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>112000</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2383,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2420,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2457,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2494,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2531,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2271,10 +2569,12 @@
       <c r="I57" t="n">
         <v>112500</v>
       </c>
-      <c r="J57" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2308,12 +2608,10 @@
       <c r="I58" t="n">
         <v>112500</v>
       </c>
-      <c r="J58" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2344,15 +2642,15 @@
         <v>206.2170759999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>112500</v>
       </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2388,9 +2686,7 @@
       <c r="I60" t="n">
         <v>111800</v>
       </c>
-      <c r="J60" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2429,9 +2725,7 @@
       <c r="I61" t="n">
         <v>112100</v>
       </c>
-      <c r="J61" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2470,9 +2764,7 @@
       <c r="I62" t="n">
         <v>112000</v>
       </c>
-      <c r="J62" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2511,9 +2803,7 @@
       <c r="I63" t="n">
         <v>112000</v>
       </c>
-      <c r="J63" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2552,9 +2842,7 @@
       <c r="I64" t="n">
         <v>112300</v>
       </c>
-      <c r="J64" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2593,9 +2881,7 @@
       <c r="I65" t="n">
         <v>112300</v>
       </c>
-      <c r="J65" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2634,9 +2920,7 @@
       <c r="I66" t="n">
         <v>112600</v>
       </c>
-      <c r="J66" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2670,12 +2954,12 @@
         <v>322.310176</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>112700</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2709,12 +2993,12 @@
         <v>333.962776</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>112700</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2748,12 +3032,12 @@
         <v>333.458476</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>113000</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2787,12 +3071,12 @@
         <v>333.458476</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>112900</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2829,9 +3113,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2868,9 +3150,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2907,9 +3187,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2946,9 +3224,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2985,9 +3261,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3024,9 +3298,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3063,9 +3335,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3102,9 +3372,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3141,9 +3409,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3180,9 +3446,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3219,9 +3483,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3258,9 +3520,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,9 +3557,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3336,9 +3594,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3375,9 +3631,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,9 +3668,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,9 +3705,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,9 +3742,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,9 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,9 +3816,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3609,9 +3853,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,9 +3890,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3687,9 +3927,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3726,9 +3964,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3765,9 +4001,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,9 +4038,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3843,9 +4075,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3882,9 +4112,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3921,9 +4149,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3960,9 +4186,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3999,9 +4223,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4038,9 +4260,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,9 +4297,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,9 +4334,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4155,9 +4371,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,9 +4408,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,9 +4445,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,9 +4482,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4311,9 +4519,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4350,9 +4556,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4389,9 +4593,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4428,9 +4630,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4467,9 +4667,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4506,9 +4704,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4545,9 +4741,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4584,9 +4778,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4623,9 +4815,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,9 +4852,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4701,9 +4889,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4740,9 +4926,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4779,9 +4963,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4818,9 +5000,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4857,9 +5037,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4896,9 +5074,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4935,9 +5111,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4974,9 +5148,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5013,9 +5185,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5052,9 +5222,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5091,9 +5259,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5130,9 +5296,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5169,9 +5333,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5208,9 +5370,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5247,9 +5407,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5286,9 +5444,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5325,9 +5481,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5364,9 +5518,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5403,9 +5555,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5442,9 +5592,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5481,9 +5629,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5520,9 +5666,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5559,9 +5703,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,9 +5740,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5637,9 +5777,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5676,9 +5814,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5715,9 +5851,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5754,9 +5888,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5793,9 +5925,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5832,9 +5962,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,9 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,9 +6036,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5949,9 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5988,9 +6110,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6027,9 +6147,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6066,9 +6184,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6105,9 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6144,9 +6258,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6183,9 +6295,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6222,9 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6261,9 +6369,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6300,9 +6406,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6339,9 +6443,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6378,9 +6480,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6417,9 +6517,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6456,9 +6554,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6495,9 +6591,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6534,9 +6628,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6573,9 +6665,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6612,9 +6702,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6651,9 +6739,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6690,9 +6776,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6729,9 +6813,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6768,9 +6850,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6807,9 +6887,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6846,9 +6924,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,9 +6961,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6924,9 +6998,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6963,9 +7035,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7002,9 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,9 +7109,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7080,9 +7146,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,9 +7183,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7158,9 +7220,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7197,9 +7257,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7236,9 +7294,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,9 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7314,9 +7368,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7353,9 +7405,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7392,9 +7442,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,9 +7479,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7470,9 +7516,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,9 +7553,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7548,9 +7590,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,9 +7627,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7623,14 +7661,10 @@
         <v>422.3339577</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J194" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7664,14 +7698,10 @@
         <v>218.9022577</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>112000</v>
-      </c>
-      <c r="J195" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7708,9 +7738,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7744,14 +7772,10 @@
         <v>217.3682577</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>111900</v>
-      </c>
-      <c r="J197" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7785,14 +7809,10 @@
         <v>217.3682577</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>111600</v>
-      </c>
-      <c r="J198" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7826,14 +7846,10 @@
         <v>217.3682577</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>111600</v>
-      </c>
-      <c r="J199" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7867,14 +7883,10 @@
         <v>339.9843577</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>111600</v>
-      </c>
-      <c r="J200" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7908,14 +7920,10 @@
         <v>334.5612577</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>112000</v>
-      </c>
-      <c r="J201" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7949,14 +7957,10 @@
         <v>334.5612577</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>111900</v>
-      </c>
-      <c r="J202" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7993,9 +7997,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8032,9 +8034,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8068,14 +8068,10 @@
         <v>320.0882577</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J205" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8109,14 +8105,10 @@
         <v>320.0882577</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J206" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8150,14 +8142,10 @@
         <v>320.0882577</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J207" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8191,14 +8179,10 @@
         <v>320.0882577</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J208" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8232,14 +8216,10 @@
         <v>245.0169577</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J209" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8273,14 +8253,10 @@
         <v>245.3569577</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>111600</v>
-      </c>
-      <c r="J210" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,14 +8290,10 @@
         <v>245.3569577</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J211" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8355,14 +8327,10 @@
         <v>239.3769577</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J212" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8396,14 +8364,10 @@
         <v>240.2169577</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>111400</v>
-      </c>
-      <c r="J213" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8437,14 +8401,10 @@
         <v>240.2169577</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J214" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8478,14 +8438,10 @@
         <v>240.2169577</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J215" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8519,14 +8475,10 @@
         <v>240.0664577</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J216" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8560,14 +8512,10 @@
         <v>241.8380577</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>111500</v>
-      </c>
-      <c r="J217" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8601,14 +8549,10 @@
         <v>241.8380577</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J218" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8642,14 +8586,10 @@
         <v>219.7291577</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J219" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8683,14 +8623,10 @@
         <v>220.9296577</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>111400</v>
-      </c>
-      <c r="J220" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8724,14 +8660,10 @@
         <v>223.6116577</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>111600</v>
-      </c>
-      <c r="J221" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8765,14 +8697,10 @@
         <v>220.7910577</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J222" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8806,14 +8734,10 @@
         <v>307.6557577</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>111600</v>
-      </c>
-      <c r="J223" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8847,14 +8771,10 @@
         <v>310.3052577</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J224" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8888,14 +8808,10 @@
         <v>236.2895577</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>112000</v>
-      </c>
-      <c r="J225" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8929,14 +8845,10 @@
         <v>236.2895577</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>111900</v>
-      </c>
-      <c r="J226" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,14 +8882,10 @@
         <v>236.2895577</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>111900</v>
-      </c>
-      <c r="J227" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9014,9 +8922,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9053,9 +8959,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9092,9 +8996,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9131,9 +9033,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9170,9 +9070,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9209,9 +9107,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9248,9 +9144,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9287,9 +9181,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9326,9 +9218,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9365,9 +9255,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9404,9 +9292,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9443,9 +9329,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9482,9 +9366,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9521,9 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,9 +9440,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9596,14 +9474,10 @@
         <v>282.5510449500001</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>111500</v>
-      </c>
-      <c r="J243" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9640,9 +9514,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,9 +9551,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9718,9 +9588,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9754,14 +9622,10 @@
         <v>282.3810449500001</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J247" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9798,9 +9662,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9834,14 +9696,10 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J249" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9875,14 +9733,10 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J250" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9916,14 +9770,10 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J251" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9957,14 +9807,10 @@
         <v>270.1294449500001</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>111700</v>
-      </c>
-      <c r="J252" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9998,14 +9844,10 @@
         <v>270.1294449500001</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>112000</v>
-      </c>
-      <c r="J253" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10042,9 +9884,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10078,14 +9918,10 @@
         <v>269.1294449500001</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>112000</v>
-      </c>
-      <c r="J255" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10119,14 +9955,10 @@
         <v>236.6290449500001</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>111900</v>
-      </c>
-      <c r="J256" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10160,14 +9992,10 @@
         <v>242.1272449500001</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J257" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10201,14 +10029,10 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>111900</v>
-      </c>
-      <c r="J258" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10242,14 +10066,10 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J259" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10283,14 +10103,10 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J260" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10324,14 +10140,10 @@
         <v>250.2762449500001</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J261" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10365,14 +10177,10 @@
         <v>247.6320449500001</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>111900</v>
-      </c>
-      <c r="J262" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10411,9 +10219,7 @@
       <c r="I263" t="n">
         <v>111800</v>
       </c>
-      <c r="J263" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10452,9 +10258,7 @@
       <c r="I264" t="n">
         <v>111700</v>
       </c>
-      <c r="J264" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10493,9 +10297,7 @@
       <c r="I265" t="n">
         <v>111800</v>
       </c>
-      <c r="J265" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10534,9 +10336,7 @@
       <c r="I266" t="n">
         <v>111700</v>
       </c>
-      <c r="J266" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10575,9 +10375,7 @@
       <c r="I267" t="n">
         <v>111700</v>
       </c>
-      <c r="J267" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10616,9 +10414,7 @@
       <c r="I268" t="n">
         <v>111700</v>
       </c>
-      <c r="J268" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10657,9 +10453,7 @@
       <c r="I269" t="n">
         <v>111700</v>
       </c>
-      <c r="J269" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10698,9 +10492,7 @@
       <c r="I270" t="n">
         <v>111700</v>
       </c>
-      <c r="J270" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10739,9 +10531,7 @@
       <c r="I271" t="n">
         <v>111700</v>
       </c>
-      <c r="J271" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10780,9 +10570,7 @@
       <c r="I272" t="n">
         <v>111600</v>
       </c>
-      <c r="J272" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10821,9 +10609,7 @@
       <c r="I273" t="n">
         <v>111100</v>
       </c>
-      <c r="J273" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10862,9 +10648,7 @@
       <c r="I274" t="n">
         <v>111000</v>
       </c>
-      <c r="J274" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10903,9 +10687,7 @@
       <c r="I275" t="n">
         <v>111300</v>
       </c>
-      <c r="J275" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10944,9 +10726,7 @@
       <c r="I276" t="n">
         <v>111400</v>
       </c>
-      <c r="J276" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,9 +10765,7 @@
       <c r="I277" t="n">
         <v>111200</v>
       </c>
-      <c r="J277" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11026,9 +10804,7 @@
       <c r="I278" t="n">
         <v>111600</v>
       </c>
-      <c r="J278" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11067,9 +10843,7 @@
       <c r="I279" t="n">
         <v>111400</v>
       </c>
-      <c r="J279" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11108,9 +10882,7 @@
       <c r="I280" t="n">
         <v>111200</v>
       </c>
-      <c r="J280" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11149,9 +10921,7 @@
       <c r="I281" t="n">
         <v>111100</v>
       </c>
-      <c r="J281" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11190,9 +10960,7 @@
       <c r="I282" t="n">
         <v>111000</v>
       </c>
-      <c r="J282" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11231,9 +10999,7 @@
       <c r="I283" t="n">
         <v>111200</v>
       </c>
-      <c r="J283" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11272,9 +11038,7 @@
       <c r="I284" t="n">
         <v>111700</v>
       </c>
-      <c r="J284" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11313,9 +11077,7 @@
       <c r="I285" t="n">
         <v>111800</v>
       </c>
-      <c r="J285" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11354,9 +11116,7 @@
       <c r="I286" t="n">
         <v>111700</v>
       </c>
-      <c r="J286" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11395,9 +11155,7 @@
       <c r="I287" t="n">
         <v>111600</v>
       </c>
-      <c r="J287" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11436,9 +11194,7 @@
       <c r="I288" t="n">
         <v>111500</v>
       </c>
-      <c r="J288" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11477,9 +11233,7 @@
       <c r="I289" t="n">
         <v>111500</v>
       </c>
-      <c r="J289" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11518,9 +11272,7 @@
       <c r="I290" t="n">
         <v>111500</v>
       </c>
-      <c r="J290" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11559,9 +11311,7 @@
       <c r="I291" t="n">
         <v>111600</v>
       </c>
-      <c r="J291" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11600,9 +11350,7 @@
       <c r="I292" t="n">
         <v>111500</v>
       </c>
-      <c r="J292" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11641,9 +11389,7 @@
       <c r="I293" t="n">
         <v>111600</v>
       </c>
-      <c r="J293" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11682,9 +11428,7 @@
       <c r="I294" t="n">
         <v>111600</v>
       </c>
-      <c r="J294" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11723,9 +11467,7 @@
       <c r="I295" t="n">
         <v>111600</v>
       </c>
-      <c r="J295" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11764,9 +11506,7 @@
       <c r="I296" t="n">
         <v>112000</v>
       </c>
-      <c r="J296" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11805,9 +11545,7 @@
       <c r="I297" t="n">
         <v>111900</v>
       </c>
-      <c r="J297" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11846,9 +11584,7 @@
       <c r="I298" t="n">
         <v>112100</v>
       </c>
-      <c r="J298" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11887,9 +11623,7 @@
       <c r="I299" t="n">
         <v>112100</v>
       </c>
-      <c r="J299" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11928,9 +11662,7 @@
       <c r="I300" t="n">
         <v>112100</v>
       </c>
-      <c r="J300" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11969,9 +11701,7 @@
       <c r="I301" t="n">
         <v>112200</v>
       </c>
-      <c r="J301" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12010,9 +11740,7 @@
       <c r="I302" t="n">
         <v>112300</v>
       </c>
-      <c r="J302" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12051,9 +11779,7 @@
       <c r="I303" t="n">
         <v>112300</v>
       </c>
-      <c r="J303" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12092,9 +11818,7 @@
       <c r="I304" t="n">
         <v>112300</v>
       </c>
-      <c r="J304" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12133,9 +11857,7 @@
       <c r="I305" t="n">
         <v>112400</v>
       </c>
-      <c r="J305" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12174,9 +11896,7 @@
       <c r="I306" t="n">
         <v>112500</v>
       </c>
-      <c r="J306" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12215,9 +11935,7 @@
       <c r="I307" t="n">
         <v>112600</v>
       </c>
-      <c r="J307" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12256,9 +11974,7 @@
       <c r="I308" t="n">
         <v>112900</v>
       </c>
-      <c r="J308" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12297,9 +12013,7 @@
       <c r="I309" t="n">
         <v>113000</v>
       </c>
-      <c r="J309" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12333,12 +12047,12 @@
         <v>361.84938135</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>113000</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12372,12 +12086,12 @@
         <v>361.84938135</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>113100</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12411,12 +12125,12 @@
         <v>361.84938135</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>113100</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12450,12 +12164,12 @@
         <v>361.84938135</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>113100</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12489,12 +12203,12 @@
         <v>346.09668135</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>113100</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12528,12 +12242,12 @@
         <v>345.78128516</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>113000</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12567,12 +12281,12 @@
         <v>368.44258897</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>112900</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12606,12 +12320,12 @@
         <v>375.7712889700001</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>113300</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12645,12 +12359,12 @@
         <v>375.7712889700001</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>112500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>113700</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12687,9 +12401,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12726,9 +12438,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12765,9 +12475,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12804,9 +12512,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12843,9 +12549,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12882,9 +12586,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12921,9 +12623,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12960,9 +12660,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12999,9 +12697,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13038,9 +12734,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13077,9 +12771,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13116,9 +12808,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13155,9 +12845,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13194,9 +12882,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13233,9 +12919,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13272,9 +12956,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13311,9 +12993,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13350,9 +13030,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13389,9 +13067,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13428,9 +13104,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13467,9 +13141,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13506,9 +13178,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13545,9 +13215,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13584,9 +13252,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13623,9 +13289,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13662,9 +13326,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13701,9 +13363,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13740,9 +13400,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13779,9 +13437,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13818,9 +13474,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13857,9 +13511,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13896,9 +13548,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13935,9 +13585,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13974,9 +13622,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14013,9 +13659,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14052,9 +13696,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14091,9 +13733,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14130,9 +13770,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14169,9 +13807,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14208,9 +13844,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14247,9 +13881,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14286,9 +13918,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14325,9 +13955,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14364,9 +13992,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14403,9 +14029,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14442,9 +14066,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14481,9 +14103,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14520,9 +14140,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14559,9 +14177,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14598,9 +14214,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14637,9 +14251,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14676,9 +14288,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14715,9 +14325,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14754,9 +14362,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14793,9 +14399,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14832,9 +14436,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14871,9 +14473,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14910,9 +14510,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14949,9 +14547,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14988,9 +14584,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15027,9 +14621,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15066,9 +14658,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15105,9 +14695,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15144,9 +14732,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15183,9 +14769,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15222,9 +14806,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15261,9 +14843,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15300,9 +14880,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15339,9 +14917,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15378,9 +14954,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15417,9 +14991,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15456,9 +15028,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15495,9 +15065,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15534,9 +15102,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15573,9 +15139,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15612,9 +15176,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15651,9 +15213,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15690,9 +15250,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15729,9 +15287,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15768,9 +15324,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15807,9 +15361,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15846,9 +15398,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15885,9 +15435,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15924,9 +15472,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15963,9 +15509,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15999,14 +15543,10 @@
         <v>6.56571962000016</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>113100</v>
-      </c>
-      <c r="J404" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16040,14 +15580,10 @@
         <v>10.47761962000016</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>112900</v>
-      </c>
-      <c r="J405" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16081,14 +15617,10 @@
         <v>10.80761962000016</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>113000</v>
-      </c>
-      <c r="J406" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16122,14 +15654,10 @@
         <v>9.83291962000016</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>113200</v>
-      </c>
-      <c r="J407" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16163,14 +15691,10 @@
         <v>9.83291962000016</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>113000</v>
-      </c>
-      <c r="J408" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16204,14 +15728,10 @@
         <v>3.83291962000016</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>113000</v>
-      </c>
-      <c r="J409" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16250,9 +15770,7 @@
       <c r="I410" t="n">
         <v>112900</v>
       </c>
-      <c r="J410" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16291,9 +15809,7 @@
       <c r="I411" t="n">
         <v>113000</v>
       </c>
-      <c r="J411" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16332,9 +15848,7 @@
       <c r="I412" t="n">
         <v>113000</v>
       </c>
-      <c r="J412" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16373,9 +15887,7 @@
       <c r="I413" t="n">
         <v>113000</v>
       </c>
-      <c r="J413" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16414,9 +15926,7 @@
       <c r="I414" t="n">
         <v>113000</v>
       </c>
-      <c r="J414" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16455,9 +15965,7 @@
       <c r="I415" t="n">
         <v>113000</v>
       </c>
-      <c r="J415" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16496,9 +16004,7 @@
       <c r="I416" t="n">
         <v>113000</v>
       </c>
-      <c r="J416" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16537,9 +16043,7 @@
       <c r="I417" t="n">
         <v>113100</v>
       </c>
-      <c r="J417" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16578,9 +16082,7 @@
       <c r="I418" t="n">
         <v>113100</v>
       </c>
-      <c r="J418" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16619,9 +16121,7 @@
       <c r="I419" t="n">
         <v>113200</v>
       </c>
-      <c r="J419" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16660,9 +16160,7 @@
       <c r="I420" t="n">
         <v>112700</v>
       </c>
-      <c r="J420" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16701,9 +16199,7 @@
       <c r="I421" t="n">
         <v>112800</v>
       </c>
-      <c r="J421" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16742,9 +16238,7 @@
       <c r="I422" t="n">
         <v>113300</v>
       </c>
-      <c r="J422" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16783,9 +16277,7 @@
       <c r="I423" t="n">
         <v>113100</v>
       </c>
-      <c r="J423" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16824,9 +16316,7 @@
       <c r="I424" t="n">
         <v>113000</v>
       </c>
-      <c r="J424" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16865,9 +16355,7 @@
       <c r="I425" t="n">
         <v>113000</v>
       </c>
-      <c r="J425" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16906,9 +16394,7 @@
       <c r="I426" t="n">
         <v>112900</v>
       </c>
-      <c r="J426" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16947,9 +16433,7 @@
       <c r="I427" t="n">
         <v>113100</v>
       </c>
-      <c r="J427" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16988,9 +16472,7 @@
       <c r="I428" t="n">
         <v>112800</v>
       </c>
-      <c r="J428" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17029,9 +16511,7 @@
       <c r="I429" t="n">
         <v>112800</v>
       </c>
-      <c r="J429" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17070,9 +16550,7 @@
       <c r="I430" t="n">
         <v>112800</v>
       </c>
-      <c r="J430" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17111,9 +16589,7 @@
       <c r="I431" t="n">
         <v>113100</v>
       </c>
-      <c r="J431" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17152,9 +16628,7 @@
       <c r="I432" t="n">
         <v>113100</v>
       </c>
-      <c r="J432" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17193,9 +16667,7 @@
       <c r="I433" t="n">
         <v>113200</v>
       </c>
-      <c r="J433" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17234,9 +16706,7 @@
       <c r="I434" t="n">
         <v>113200</v>
       </c>
-      <c r="J434" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17270,14 +16740,10 @@
         <v>-492.8840803799998</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>112800</v>
-      </c>
-      <c r="J435" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17311,14 +16777,10 @@
         <v>121.3586196200002</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>112900</v>
-      </c>
-      <c r="J436" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17352,14 +16814,10 @@
         <v>143.5808196200002</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>113000</v>
-      </c>
-      <c r="J437" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17396,9 +16854,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17435,9 +16891,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17474,9 +16928,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17513,9 +16965,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17552,9 +17002,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17591,9 +17039,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17630,9 +17076,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17669,9 +17113,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17708,9 +17150,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17747,9 +17187,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17786,9 +17224,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17825,9 +17261,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17864,9 +17298,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17903,9 +17335,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17942,9 +17372,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17981,9 +17409,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18020,9 +17446,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18059,9 +17483,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18098,9 +17520,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18137,9 +17557,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18176,9 +17594,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18215,9 +17631,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18254,9 +17668,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18293,9 +17705,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18332,9 +17742,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18371,9 +17779,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18410,9 +17816,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18449,9 +17853,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18488,9 +17890,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18527,9 +17927,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18566,9 +17964,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18605,9 +18001,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18644,9 +18038,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18683,9 +18075,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18722,9 +18112,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18761,9 +18149,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18800,9 +18186,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18839,9 +18223,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18878,9 +18260,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18917,9 +18297,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18956,9 +18334,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18995,9 +18371,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19034,9 +18408,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19073,9 +18445,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19112,9 +18482,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19151,9 +18519,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19190,9 +18556,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19229,9 +18593,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19268,9 +18630,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19307,9 +18667,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19346,9 +18704,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19385,9 +18741,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19424,9 +18778,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19463,9 +18815,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19502,9 +18852,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19541,9 +18889,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19580,9 +18926,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19619,9 +18963,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19658,9 +19000,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19697,9 +19037,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19736,9 +19074,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19775,9 +19111,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19814,9 +19148,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19853,9 +19185,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19892,9 +19222,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19931,9 +19259,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19970,9 +19296,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20009,9 +19333,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20048,9 +19370,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20087,9 +19407,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20126,9 +19444,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20165,9 +19481,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20204,9 +19518,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20243,9 +19555,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20282,9 +19592,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20321,9 +19629,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20360,9 +19666,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20399,9 +19703,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20438,9 +19740,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20477,9 +19777,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20516,9 +19814,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20555,9 +19851,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20594,9 +19888,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20633,9 +19925,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20672,9 +19962,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20711,9 +19999,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20750,9 +20036,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20789,9 +20073,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20828,9 +20110,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20867,9 +20147,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20906,9 +20184,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20945,9 +20221,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20984,9 +20258,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21023,9 +20295,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21062,9 +20332,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21101,9 +20369,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21140,9 +20406,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21179,9 +20443,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21218,9 +20480,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21257,9 +20517,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21296,9 +20554,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21335,9 +20591,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21374,9 +20628,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21413,9 +20665,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21452,9 +20702,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21491,9 +20739,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21530,9 +20776,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21569,9 +20813,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21608,9 +20850,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21647,9 +20887,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21686,9 +20924,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21725,9 +20961,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21764,9 +20998,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21803,9 +21035,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21842,9 +21072,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21881,9 +21109,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21920,9 +21146,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21959,9 +21183,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21998,9 +21220,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22037,9 +21257,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22076,9 +21294,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22115,9 +21331,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22154,9 +21368,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22193,9 +21405,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22232,9 +21442,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22271,9 +21479,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22310,9 +21516,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22349,9 +21553,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22388,9 +21590,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22427,9 +21627,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22466,9 +21664,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22505,9 +21701,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22544,9 +21738,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22583,9 +21775,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22622,9 +21812,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22661,9 +21849,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22700,9 +21886,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22739,9 +21923,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22778,9 +21960,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22817,9 +21997,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22856,9 +22034,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22895,9 +22071,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22934,9 +22108,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22973,9 +22145,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23012,9 +22182,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23051,9 +22219,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23090,9 +22256,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23129,9 +22293,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23168,9 +22330,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23207,9 +22367,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23246,9 +22404,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23285,9 +22441,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23324,9 +22478,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23363,9 +22515,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23402,9 +22552,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23441,9 +22589,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23480,9 +22626,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23519,9 +22663,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23558,9 +22700,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23597,9 +22737,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23636,9 +22774,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23675,9 +22811,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23711,23 +22845,19 @@
         <v>3049.423385770001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>112500</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L600" t="n">
-        <v>1.126555555555556</v>
-      </c>
-      <c r="M600" t="n">
-        <v>1.019021739130435</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -23752,11 +22882,15 @@
         <v>2335.30928577</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23785,11 +22919,15 @@
         <v>3513.05281203</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23822,7 +22960,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -23855,7 +22997,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23888,7 +23034,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23921,7 +23071,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23954,7 +23108,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23987,7 +23145,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24020,7 +23182,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24053,7 +23219,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24086,7 +23256,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24119,7 +23293,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24152,7 +23330,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24185,7 +23367,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24218,7 +23404,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24251,7 +23441,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24284,7 +23478,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24317,7 +23515,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24350,7 +23552,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24383,7 +23589,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24416,7 +23626,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -24445,14 +23659,16 @@
         <v>2469.75092217</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
-      <c r="L622" t="n">
-        <v>1</v>
-      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L622" t="inlineStr"/>
       <c r="M622" t="inlineStr"/>
     </row>
     <row r="623">
@@ -24478,7 +23694,7 @@
         <v>2616.70172217</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24511,7 +23727,7 @@
         <v>2914.83202217</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24544,7 +23760,7 @@
         <v>2328.60374372</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24577,7 +23793,7 @@
         <v>2728.27660262</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24610,7 +23826,7 @@
         <v>2371.01480262</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24643,7 +23859,7 @@
         <v>2236.71180262</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24676,7 +23892,7 @@
         <v>2140.20820262</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24709,7 +23925,7 @@
         <v>2101.07490262</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24742,7 +23958,7 @@
         <v>2049.68710262</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
